--- a/RutaCritica/INGENIERÍA-CIVIL-EN-INFORMÁTICA-Y-TELECOMUNICACIONES.xlsx
+++ b/RutaCritica/INGENIERÍA-CIVIL-EN-INFORMÁTICA-Y-TELECOMUNICACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9570D-32DC-4FCC-BF99-AB03998C0323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED601776-5B85-4713-8CF5-223A504BD3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6898" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="1045">
   <si>
     <t>CBF1000</t>
   </si>
@@ -1613,6 +1613,9 @@
   </si>
   <si>
     <t>CIT2202</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
   </si>
   <si>
     <t>CIT2202_VC01</t>
@@ -3504,8 +3507,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>165735</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3805,7 +3808,7 @@
   <dimension ref="Q1:AB1506"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q782" workbookViewId="0">
-      <selection activeCell="R804" sqref="R804:R805"/>
+      <selection activeCell="R804" sqref="R804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -3827,40 +3830,40 @@
   <sheetData>
     <row r="1" spans="17:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="Q1" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="T1" s="26" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -21930,7 +21933,7 @@
         <v>470</v>
       </c>
       <c r="R689" s="27" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="S689" s="24">
         <v>6</v>
@@ -22540,7 +22543,7 @@
         <v>470</v>
       </c>
       <c r="R713" s="27" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="S713" s="24">
         <v>6</v>
@@ -22946,7 +22949,7 @@
         <v>470</v>
       </c>
       <c r="R729" s="27" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="S729" s="24">
         <v>6</v>
@@ -24679,7 +24682,9 @@
       <c r="Q804" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="R804" s="16"/>
+      <c r="R804" s="16" t="s">
+        <v>530</v>
+      </c>
       <c r="S804" s="24">
         <v>6</v>
       </c>
@@ -24705,7 +24710,7 @@
         <v>8</v>
       </c>
       <c r="AA804" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AB804" s="17">
         <v>45</v>
@@ -24715,7 +24720,9 @@
       <c r="Q805" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="R805" s="13"/>
+      <c r="R805" s="13" t="s">
+        <v>530</v>
+      </c>
       <c r="S805" s="23">
         <v>6</v>
       </c>
@@ -24741,7 +24748,7 @@
         <v>8</v>
       </c>
       <c r="AA805" s="13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AB805" s="14"/>
     </row>
@@ -24789,10 +24796,10 @@
     </row>
     <row r="809" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q809" s="15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R809" s="16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S809" s="24">
         <v>6</v>
@@ -24810,7 +24817,7 @@
         <v>162</v>
       </c>
       <c r="X809" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y809" s="16" t="s">
         <v>7</v>
@@ -24819,7 +24826,7 @@
         <v>8</v>
       </c>
       <c r="AA809" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AB809" s="17">
         <v>30</v>
@@ -24827,10 +24834,10 @@
     </row>
     <row r="810" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q810" s="12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R810" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S810" s="23">
         <v>6</v>
@@ -24857,7 +24864,7 @@
         <v>8</v>
       </c>
       <c r="AA810" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AB810" s="14"/>
     </row>
@@ -24905,10 +24912,10 @@
     </row>
     <row r="814" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q814" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R814" s="16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S814" s="24">
         <v>6</v>
@@ -24935,7 +24942,7 @@
         <v>8</v>
       </c>
       <c r="AA814" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AB814" s="17">
         <v>30</v>
@@ -24943,10 +24950,10 @@
     </row>
     <row r="815" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q815" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R815" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S815" s="23">
         <v>6</v>
@@ -24973,7 +24980,7 @@
         <v>8</v>
       </c>
       <c r="AA815" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AB815" s="14"/>
     </row>
@@ -25021,10 +25028,10 @@
     </row>
     <row r="819" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q819" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="R819" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S819" s="24">
         <v>7</v>
@@ -25051,7 +25058,7 @@
         <v>8</v>
       </c>
       <c r="AA819" s="16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AB819" s="17">
         <v>25</v>
@@ -25059,10 +25066,10 @@
     </row>
     <row r="820" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q820" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="R820" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S820" s="23">
         <v>7</v>
@@ -25089,7 +25096,7 @@
         <v>8</v>
       </c>
       <c r="AA820" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AB820" s="14"/>
     </row>
@@ -25137,10 +25144,10 @@
     </row>
     <row r="824" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q824" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="R824" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S824" s="24">
         <v>6</v>
@@ -25158,7 +25165,7 @@
         <v>68</v>
       </c>
       <c r="X824" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y824" s="16" t="s">
         <v>7</v>
@@ -25167,7 +25174,7 @@
         <v>8</v>
       </c>
       <c r="AA824" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB824" s="17">
         <v>20</v>
@@ -25175,10 +25182,10 @@
     </row>
     <row r="825" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q825" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="R825" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S825" s="23">
         <v>6</v>
@@ -25196,16 +25203,16 @@
         <v>72</v>
       </c>
       <c r="X825" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y825" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z825" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA825" s="13" t="s">
         <v>545</v>
-      </c>
-      <c r="Y825" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z825" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA825" s="13" t="s">
-        <v>544</v>
       </c>
       <c r="AB825" s="14"/>
     </row>
@@ -25253,10 +25260,10 @@
     </row>
     <row r="829" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q829" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="R829" s="19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="S829" s="25">
         <v>6</v>
@@ -25274,7 +25281,7 @@
         <v>12</v>
       </c>
       <c r="X829" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Y829" s="19" t="s">
         <v>7</v>
@@ -25283,7 +25290,7 @@
         <v>8</v>
       </c>
       <c r="AA829" s="19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB829" s="20">
         <v>20</v>
@@ -25333,10 +25340,10 @@
     </row>
     <row r="833" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q833" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R833" s="19" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="S833" s="25">
         <v>6</v>
@@ -25354,7 +25361,7 @@
         <v>148</v>
       </c>
       <c r="X833" s="19" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y833" s="19" t="s">
         <v>7</v>
@@ -25363,7 +25370,7 @@
         <v>8</v>
       </c>
       <c r="AA833" s="19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AB833" s="20">
         <v>14</v>
@@ -25413,10 +25420,10 @@
     </row>
     <row r="837" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q837" s="15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="R837" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="S837" s="24">
         <v>30</v>
@@ -25434,7 +25441,7 @@
         <v>511</v>
       </c>
       <c r="X837" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Y837" s="16" t="s">
         <v>7</v>
@@ -25443,7 +25450,7 @@
         <v>8</v>
       </c>
       <c r="AA837" s="16" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AB837" s="17">
         <v>20</v>
@@ -25451,10 +25458,10 @@
     </row>
     <row r="838" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q838" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="R838" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="S838" s="23">
         <v>30</v>
@@ -25472,7 +25479,7 @@
         <v>511</v>
       </c>
       <c r="X838" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y838" s="13" t="s">
         <v>7</v>
@@ -25481,7 +25488,7 @@
         <v>8</v>
       </c>
       <c r="AA838" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AB838" s="14"/>
     </row>
@@ -25529,10 +25536,10 @@
     </row>
     <row r="842" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q842" s="15" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R842" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S842" s="24">
         <v>30</v>
@@ -25547,10 +25554,10 @@
         <v>11</v>
       </c>
       <c r="W842" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X842" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Y842" s="16" t="s">
         <v>7</v>
@@ -25559,7 +25566,7 @@
         <v>8</v>
       </c>
       <c r="AA842" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AB842" s="17">
         <v>10</v>
@@ -25567,10 +25574,10 @@
     </row>
     <row r="843" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q843" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R843" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S843" s="23">
         <v>30</v>
@@ -25585,10 +25592,10 @@
         <v>11</v>
       </c>
       <c r="W843" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X843" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y843" s="13" t="s">
         <v>7</v>
@@ -25597,7 +25604,7 @@
         <v>8</v>
       </c>
       <c r="AA843" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AB843" s="14"/>
     </row>
@@ -25645,10 +25652,10 @@
     </row>
     <row r="847" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q847" s="15" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="R847" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="S847" s="24">
         <v>30</v>
@@ -25666,7 +25673,7 @@
         <v>447</v>
       </c>
       <c r="X847" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Y847" s="16" t="s">
         <v>7</v>
@@ -25675,7 +25682,7 @@
         <v>8</v>
       </c>
       <c r="AA847" s="16" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AB847" s="17">
         <v>15</v>
@@ -25683,10 +25690,10 @@
     </row>
     <row r="848" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q848" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="R848" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="S848" s="23">
         <v>30</v>
@@ -25704,7 +25711,7 @@
         <v>447</v>
       </c>
       <c r="X848" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y848" s="13" t="s">
         <v>7</v>
@@ -25713,7 +25720,7 @@
         <v>8</v>
       </c>
       <c r="AA848" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AB848" s="14"/>
     </row>
@@ -25761,10 +25768,10 @@
     </row>
     <row r="852" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q852" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="R852" s="19" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S852" s="25">
         <v>0</v>
@@ -25776,7 +25783,7 @@
         <v>3</v>
       </c>
       <c r="V852" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="W852" s="19" t="s">
         <v>447</v>
@@ -25791,7 +25798,7 @@
         <v>8</v>
       </c>
       <c r="AA852" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AB852" s="20">
         <v>33</v>
@@ -25841,10 +25848,10 @@
     </row>
     <row r="856" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q856" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="R856" s="19" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="S856" s="25">
         <v>0</v>
@@ -25856,7 +25863,7 @@
         <v>3</v>
       </c>
       <c r="V856" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="W856" s="19" t="s">
         <v>447</v>
@@ -25871,7 +25878,7 @@
         <v>8</v>
       </c>
       <c r="AA856" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AB856" s="20">
         <v>35</v>
@@ -25921,10 +25928,10 @@
     </row>
     <row r="860" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q860" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R860" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S860" s="25">
         <v>5</v>
@@ -25942,7 +25949,7 @@
         <v>68</v>
       </c>
       <c r="X860" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y860" s="19" t="s">
         <v>7</v>
@@ -25951,7 +25958,7 @@
         <v>8</v>
       </c>
       <c r="AA860" s="19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AB860" s="20">
         <v>45</v>
@@ -25987,10 +25994,10 @@
     </row>
     <row r="863" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q863" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R863" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S863" s="25">
         <v>5</v>
@@ -26008,7 +26015,7 @@
         <v>21</v>
       </c>
       <c r="X863" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y863" s="19" t="s">
         <v>7</v>
@@ -26017,7 +26024,7 @@
         <v>8</v>
       </c>
       <c r="AA863" s="19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AB863" s="20">
         <v>45</v>
@@ -26053,10 +26060,10 @@
     </row>
     <row r="866" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q866" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R866" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S866" s="25">
         <v>5</v>
@@ -26074,7 +26081,7 @@
         <v>83</v>
       </c>
       <c r="X866" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y866" s="19" t="s">
         <v>7</v>
@@ -26083,7 +26090,7 @@
         <v>8</v>
       </c>
       <c r="AA866" s="19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AB866" s="20">
         <v>45</v>
@@ -26119,10 +26126,10 @@
     </row>
     <row r="869" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q869" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R869" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S869" s="25">
         <v>5</v>
@@ -26140,7 +26147,7 @@
         <v>21</v>
       </c>
       <c r="X869" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y869" s="19" t="s">
         <v>7</v>
@@ -26149,7 +26156,7 @@
         <v>8</v>
       </c>
       <c r="AA869" s="19" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AB869" s="20">
         <v>45</v>
@@ -26185,10 +26192,10 @@
     </row>
     <row r="872" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q872" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R872" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S872" s="25">
         <v>5</v>
@@ -26206,7 +26213,7 @@
         <v>158</v>
       </c>
       <c r="X872" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y872" s="19" t="s">
         <v>7</v>
@@ -26215,7 +26222,7 @@
         <v>8</v>
       </c>
       <c r="AA872" s="19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AB872" s="20">
         <v>45</v>
@@ -26251,10 +26258,10 @@
     </row>
     <row r="875" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q875" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R875" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S875" s="25">
         <v>5</v>
@@ -26272,7 +26279,7 @@
         <v>158</v>
       </c>
       <c r="X875" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y875" s="19" t="s">
         <v>7</v>
@@ -26281,7 +26288,7 @@
         <v>8</v>
       </c>
       <c r="AA875" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AB875" s="20">
         <v>45</v>
@@ -26317,10 +26324,10 @@
     </row>
     <row r="878" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q878" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R878" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S878" s="25">
         <v>5</v>
@@ -26338,7 +26345,7 @@
         <v>21</v>
       </c>
       <c r="X878" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y878" s="19" t="s">
         <v>7</v>
@@ -26347,7 +26354,7 @@
         <v>8</v>
       </c>
       <c r="AA878" s="19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AB878" s="20">
         <v>45</v>
@@ -26383,10 +26390,10 @@
     </row>
     <row r="881" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q881" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R881" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S881" s="25">
         <v>5</v>
@@ -26404,7 +26411,7 @@
         <v>83</v>
       </c>
       <c r="X881" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y881" s="19" t="s">
         <v>7</v>
@@ -26413,7 +26420,7 @@
         <v>8</v>
       </c>
       <c r="AA881" s="19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AB881" s="20">
         <v>45</v>
@@ -26449,10 +26456,10 @@
     </row>
     <row r="884" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q884" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R884" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S884" s="25">
         <v>5</v>
@@ -26470,7 +26477,7 @@
         <v>148</v>
       </c>
       <c r="X884" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y884" s="19" t="s">
         <v>7</v>
@@ -26479,7 +26486,7 @@
         <v>8</v>
       </c>
       <c r="AA884" s="19" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AB884" s="20">
         <v>45</v>
@@ -26515,10 +26522,10 @@
     </row>
     <row r="887" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q887" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R887" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S887" s="25">
         <v>5</v>
@@ -26536,7 +26543,7 @@
         <v>148</v>
       </c>
       <c r="X887" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y887" s="19" t="s">
         <v>7</v>
@@ -26545,7 +26552,7 @@
         <v>8</v>
       </c>
       <c r="AA887" s="19" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AB887" s="20">
         <v>45</v>
@@ -26581,10 +26588,10 @@
     </row>
     <row r="890" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q890" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R890" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S890" s="25">
         <v>5</v>
@@ -26602,7 +26609,7 @@
         <v>53</v>
       </c>
       <c r="X890" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y890" s="19" t="s">
         <v>7</v>
@@ -26611,7 +26618,7 @@
         <v>8</v>
       </c>
       <c r="AA890" s="19" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AB890" s="20">
         <v>45</v>
@@ -26647,10 +26654,10 @@
     </row>
     <row r="893" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q893" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R893" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S893" s="25">
         <v>5</v>
@@ -26668,7 +26675,7 @@
         <v>53</v>
       </c>
       <c r="X893" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y893" s="19" t="s">
         <v>7</v>
@@ -26677,7 +26684,7 @@
         <v>8</v>
       </c>
       <c r="AA893" s="19" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AB893" s="20">
         <v>45</v>
@@ -26713,10 +26720,10 @@
     </row>
     <row r="896" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q896" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R896" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S896" s="25">
         <v>5</v>
@@ -26734,7 +26741,7 @@
         <v>53</v>
       </c>
       <c r="X896" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y896" s="19" t="s">
         <v>7</v>
@@ -26743,7 +26750,7 @@
         <v>8</v>
       </c>
       <c r="AA896" s="19" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AB896" s="20">
         <v>45</v>
@@ -26779,10 +26786,10 @@
     </row>
     <row r="899" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q899" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R899" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S899" s="25">
         <v>5</v>
@@ -26800,7 +26807,7 @@
         <v>12</v>
       </c>
       <c r="X899" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y899" s="19" t="s">
         <v>7</v>
@@ -26809,7 +26816,7 @@
         <v>8</v>
       </c>
       <c r="AA899" s="19" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AB899" s="20">
         <v>45</v>
@@ -26859,10 +26866,10 @@
     </row>
     <row r="903" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q903" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="R903" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="S903" s="25">
         <v>5</v>
@@ -26880,7 +26887,7 @@
         <v>474</v>
       </c>
       <c r="X903" s="19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y903" s="19" t="s">
         <v>7</v>
@@ -26889,7 +26896,7 @@
         <v>8</v>
       </c>
       <c r="AA903" s="19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AB903" s="20">
         <v>45</v>
@@ -26925,10 +26932,10 @@
     </row>
     <row r="906" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q906" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="R906" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="S906" s="25">
         <v>5</v>
@@ -26946,7 +26953,7 @@
         <v>12</v>
       </c>
       <c r="X906" s="19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y906" s="19" t="s">
         <v>7</v>
@@ -26955,7 +26962,7 @@
         <v>8</v>
       </c>
       <c r="AA906" s="19" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AB906" s="20">
         <v>45</v>
@@ -26991,10 +26998,10 @@
     </row>
     <row r="909" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q909" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="R909" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="S909" s="25">
         <v>5</v>
@@ -27012,7 +27019,7 @@
         <v>162</v>
       </c>
       <c r="X909" s="19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y909" s="19" t="s">
         <v>7</v>
@@ -27021,7 +27028,7 @@
         <v>8</v>
       </c>
       <c r="AA909" s="19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AB909" s="20">
         <v>45</v>
@@ -27071,10 +27078,10 @@
     </row>
     <row r="913" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q913" s="18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R913" s="19" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S913" s="25">
         <v>5</v>
@@ -27149,10 +27156,10 @@
     </row>
     <row r="917" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q917" s="18" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R917" s="19" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="S917" s="25">
         <v>6</v>
@@ -27179,7 +27186,7 @@
         <v>8</v>
       </c>
       <c r="AA917" s="19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AB917" s="20"/>
     </row>
@@ -27213,10 +27220,10 @@
     </row>
     <row r="920" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q920" s="18" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R920" s="19" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="S920" s="25">
         <v>6</v>
@@ -27234,7 +27241,7 @@
         <v>447</v>
       </c>
       <c r="X920" s="19" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y920" s="19" t="s">
         <v>7</v>
@@ -27243,7 +27250,7 @@
         <v>8</v>
       </c>
       <c r="AA920" s="19" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AB920" s="20"/>
     </row>
@@ -27291,10 +27298,10 @@
     </row>
     <row r="924" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q924" s="18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R924" s="19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="S924" s="25">
         <v>6</v>
@@ -27309,10 +27316,10 @@
         <v>11</v>
       </c>
       <c r="W924" s="19" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="X924" s="19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y924" s="19" t="s">
         <v>7</v>
@@ -27321,7 +27328,7 @@
         <v>8</v>
       </c>
       <c r="AA924" s="19" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AB924" s="20">
         <v>5</v>
@@ -27371,10 +27378,10 @@
     </row>
     <row r="928" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q928" s="15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="R928" s="16" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S928" s="24">
         <v>6</v>
@@ -27392,7 +27399,7 @@
         <v>162</v>
       </c>
       <c r="X928" s="16" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y928" s="16" t="s">
         <v>7</v>
@@ -27401,7 +27408,7 @@
         <v>8</v>
       </c>
       <c r="AA928" s="16" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AB928" s="17">
         <v>40</v>
@@ -27409,10 +27416,10 @@
     </row>
     <row r="929" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q929" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="R929" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S929" s="23">
         <v>6</v>
@@ -27427,19 +27434,19 @@
         <v>182</v>
       </c>
       <c r="W929" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="X929" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y929" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z929" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA929" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="X929" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y929" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z929" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA929" s="13" t="s">
-        <v>611</v>
       </c>
       <c r="AB929" s="14"/>
     </row>
@@ -27473,10 +27480,10 @@
     </row>
     <row r="932" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q932" s="15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="R932" s="16" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S932" s="24">
         <v>6</v>
@@ -27503,7 +27510,7 @@
         <v>8</v>
       </c>
       <c r="AA932" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AB932" s="17">
         <v>40</v>
@@ -27511,10 +27518,10 @@
     </row>
     <row r="933" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q933" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="R933" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S933" s="23">
         <v>6</v>
@@ -27529,7 +27536,7 @@
         <v>225</v>
       </c>
       <c r="W933" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="X933" s="13" t="s">
         <v>2</v>
@@ -27541,7 +27548,7 @@
         <v>8</v>
       </c>
       <c r="AA933" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AB933" s="14"/>
     </row>
@@ -27589,28 +27596,28 @@
     </row>
     <row r="937" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q937" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R937" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S937" s="25">
         <v>5</v>
       </c>
       <c r="T937" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U937" s="19" t="s">
         <v>3</v>
       </c>
       <c r="V937" s="19" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="W937" s="19" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="X937" s="19" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Y937" s="19" t="s">
         <v>7</v>
@@ -27619,7 +27626,7 @@
         <v>8</v>
       </c>
       <c r="AA937" s="19" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AB937" s="20">
         <v>30</v>
@@ -27655,28 +27662,28 @@
     </row>
     <row r="940" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q940" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R940" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S940" s="25">
         <v>5</v>
       </c>
       <c r="T940" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U940" s="19" t="s">
         <v>66</v>
       </c>
       <c r="V940" s="19" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="W940" s="19" t="s">
         <v>385</v>
       </c>
       <c r="X940" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y940" s="19" t="s">
         <v>7</v>
@@ -27685,7 +27692,7 @@
         <v>8</v>
       </c>
       <c r="AA940" s="19" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AB940" s="20">
         <v>30</v>
@@ -27721,28 +27728,28 @@
     </row>
     <row r="943" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q943" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R943" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S943" s="25">
         <v>5</v>
       </c>
       <c r="T943" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U943" s="19" t="s">
         <v>78</v>
       </c>
       <c r="V943" s="19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="W943" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="X943" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y943" s="19" t="s">
         <v>7</v>
@@ -27751,7 +27758,7 @@
         <v>8</v>
       </c>
       <c r="AA943" s="19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AB943" s="20">
         <v>30</v>
@@ -27787,37 +27794,37 @@
     </row>
     <row r="946" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q946" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R946" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S946" s="25">
         <v>5</v>
       </c>
       <c r="T946" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U946" s="19" t="s">
         <v>85</v>
       </c>
       <c r="V946" s="19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="W946" s="19" t="s">
         <v>158</v>
       </c>
       <c r="X946" s="19" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y946" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z946" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA946" s="19" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AB946" s="20">
         <v>30</v>
@@ -27853,37 +27860,37 @@
     </row>
     <row r="949" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q949" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R949" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S949" s="25">
         <v>5</v>
       </c>
       <c r="T949" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U949" s="19" t="s">
         <v>87</v>
       </c>
       <c r="V949" s="19" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="W949" s="19" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="X949" s="19" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y949" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z949" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA949" s="19" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AB949" s="20">
         <v>30</v>
@@ -27919,37 +27926,37 @@
     </row>
     <row r="952" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q952" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R952" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S952" s="25">
         <v>5</v>
       </c>
       <c r="T952" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U952" s="19" t="s">
         <v>95</v>
       </c>
       <c r="V952" s="19" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="W952" s="19" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X952" s="19" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y952" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z952" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA952" s="19" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AB952" s="20">
         <v>30</v>
@@ -27985,37 +27992,37 @@
     </row>
     <row r="955" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q955" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R955" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S955" s="25">
         <v>5</v>
       </c>
       <c r="T955" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U955" s="19" t="s">
         <v>98</v>
       </c>
       <c r="V955" s="19" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="W955" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="X955" s="19" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y955" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z955" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA955" s="19" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AB955" s="20">
         <v>30</v>
@@ -28051,37 +28058,37 @@
     </row>
     <row r="958" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q958" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R958" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S958" s="25">
         <v>5</v>
       </c>
       <c r="T958" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U958" s="19" t="s">
         <v>104</v>
       </c>
       <c r="V958" s="19" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="W958" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X958" s="19" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y958" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z958" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA958" s="19" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AB958" s="20">
         <v>30</v>
@@ -28117,37 +28124,37 @@
     </row>
     <row r="961" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q961" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R961" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S961" s="25">
         <v>5</v>
       </c>
       <c r="T961" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U961" s="19" t="s">
         <v>107</v>
       </c>
       <c r="V961" s="19" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="W961" s="19" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="X961" s="19" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y961" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z961" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA961" s="19" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AB961" s="20">
         <v>30</v>
@@ -28183,28 +28190,28 @@
     </row>
     <row r="964" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q964" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R964" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S964" s="25">
         <v>5</v>
       </c>
       <c r="T964" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U964" s="19" t="s">
         <v>16</v>
       </c>
       <c r="V964" s="19" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="W964" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="X964" s="19" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Y964" s="19" t="s">
         <v>7</v>
@@ -28213,7 +28220,7 @@
         <v>8</v>
       </c>
       <c r="AA964" s="19" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AB964" s="20">
         <v>30</v>
@@ -28249,28 +28256,28 @@
     </row>
     <row r="967" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q967" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R967" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S967" s="25">
         <v>5</v>
       </c>
       <c r="T967" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U967" s="19" t="s">
         <v>125</v>
       </c>
       <c r="V967" s="19" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="W967" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X967" s="19" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Y967" s="19" t="s">
         <v>7</v>
@@ -28279,7 +28286,7 @@
         <v>8</v>
       </c>
       <c r="AA967" s="19" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AB967" s="20">
         <v>30</v>
@@ -28315,28 +28322,28 @@
     </row>
     <row r="970" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q970" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R970" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S970" s="25">
         <v>5</v>
       </c>
       <c r="T970" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U970" s="19" t="s">
         <v>132</v>
       </c>
       <c r="V970" s="19" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="W970" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X970" s="19" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Y970" s="19" t="s">
         <v>7</v>
@@ -28345,7 +28352,7 @@
         <v>8</v>
       </c>
       <c r="AA970" s="19" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AB970" s="20">
         <v>30</v>
@@ -28381,28 +28388,28 @@
     </row>
     <row r="973" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q973" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R973" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S973" s="25">
         <v>5</v>
       </c>
       <c r="T973" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U973" s="19" t="s">
         <v>32</v>
       </c>
       <c r="V973" s="19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="W973" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="X973" s="19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y973" s="19" t="s">
         <v>7</v>
@@ -28411,7 +28418,7 @@
         <v>8</v>
       </c>
       <c r="AA973" s="19" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AB973" s="20">
         <v>30</v>
@@ -28447,28 +28454,28 @@
     </row>
     <row r="976" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q976" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R976" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S976" s="25">
         <v>5</v>
       </c>
       <c r="T976" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U976" s="19" t="s">
         <v>43</v>
       </c>
       <c r="V976" s="19" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="W976" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="X976" s="19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y976" s="19" t="s">
         <v>7</v>
@@ -28477,7 +28484,7 @@
         <v>8</v>
       </c>
       <c r="AA976" s="19" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AB976" s="20">
         <v>30</v>
@@ -28513,28 +28520,28 @@
     </row>
     <row r="979" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q979" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R979" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S979" s="25">
         <v>5</v>
       </c>
       <c r="T979" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U979" s="19" t="s">
         <v>46</v>
       </c>
       <c r="V979" s="19" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="W979" s="19" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X979" s="19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y979" s="19" t="s">
         <v>7</v>
@@ -28543,7 +28550,7 @@
         <v>8</v>
       </c>
       <c r="AA979" s="19" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AB979" s="20">
         <v>30</v>
@@ -28579,28 +28586,28 @@
     </row>
     <row r="982" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q982" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R982" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S982" s="25">
         <v>5</v>
       </c>
       <c r="T982" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U982" s="19" t="s">
         <v>56</v>
       </c>
       <c r="V982" s="19" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="W982" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="X982" s="19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y982" s="19" t="s">
         <v>7</v>
@@ -28609,7 +28616,7 @@
         <v>8</v>
       </c>
       <c r="AA982" s="19" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AB982" s="20">
         <v>30</v>
@@ -28645,28 +28652,28 @@
     </row>
     <row r="985" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q985" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R985" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S985" s="25">
         <v>5</v>
       </c>
       <c r="T985" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U985" s="19" t="s">
         <v>143</v>
       </c>
       <c r="V985" s="19" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="W985" s="19" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X985" s="19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y985" s="19" t="s">
         <v>7</v>
@@ -28675,7 +28682,7 @@
         <v>8</v>
       </c>
       <c r="AA985" s="19" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AB985" s="20">
         <v>30</v>
@@ -28711,25 +28718,25 @@
     </row>
     <row r="988" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q988" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R988" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S988" s="25">
         <v>5</v>
       </c>
       <c r="T988" s="19" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="U988" s="19" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="V988" s="19" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="W988" s="19" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="X988" s="19" t="s">
         <v>2</v>
@@ -28741,7 +28748,7 @@
         <v>8</v>
       </c>
       <c r="AA988" s="19" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AB988" s="20">
         <v>1300</v>
@@ -28791,16 +28798,16 @@
     </row>
     <row r="992" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q992" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R992" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S992" s="25">
         <v>5</v>
       </c>
       <c r="T992" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U992" s="19" t="s">
         <v>3</v>
@@ -28809,10 +28816,10 @@
         <v>11</v>
       </c>
       <c r="W992" s="19" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="X992" s="19" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y992" s="19" t="s">
         <v>7</v>
@@ -28821,7 +28828,7 @@
         <v>8</v>
       </c>
       <c r="AA992" s="19" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AB992" s="20">
         <v>30</v>
@@ -28857,16 +28864,16 @@
     </row>
     <row r="995" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q995" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R995" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S995" s="25">
         <v>5</v>
       </c>
       <c r="T995" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U995" s="19" t="s">
         <v>66</v>
@@ -28875,10 +28882,10 @@
         <v>116</v>
       </c>
       <c r="W995" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X995" s="19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y995" s="19" t="s">
         <v>7</v>
@@ -28887,7 +28894,7 @@
         <v>8</v>
       </c>
       <c r="AA995" s="19" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AB995" s="20">
         <v>30</v>
@@ -28923,16 +28930,16 @@
     </row>
     <row r="998" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q998" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R998" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S998" s="25">
         <v>5</v>
       </c>
       <c r="T998" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U998" s="19" t="s">
         <v>78</v>
@@ -28941,10 +28948,10 @@
         <v>189</v>
       </c>
       <c r="W998" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X998" s="19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y998" s="19" t="s">
         <v>7</v>
@@ -28953,7 +28960,7 @@
         <v>8</v>
       </c>
       <c r="AA998" s="19" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AB998" s="20">
         <v>30</v>
@@ -28989,16 +28996,16 @@
     </row>
     <row r="1001" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1001" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1001" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1001" s="25">
         <v>5</v>
       </c>
       <c r="T1001" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1001" s="19" t="s">
         <v>85</v>
@@ -29007,10 +29014,10 @@
         <v>194</v>
       </c>
       <c r="W1001" s="19" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="X1001" s="19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y1001" s="19" t="s">
         <v>7</v>
@@ -29019,7 +29026,7 @@
         <v>8</v>
       </c>
       <c r="AA1001" s="19" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AB1001" s="20">
         <v>30</v>
@@ -29055,16 +29062,16 @@
     </row>
     <row r="1004" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1004" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1004" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1004" s="25">
         <v>5</v>
       </c>
       <c r="T1004" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1004" s="19" t="s">
         <v>87</v>
@@ -29073,10 +29080,10 @@
         <v>200</v>
       </c>
       <c r="W1004" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X1004" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Y1004" s="19" t="s">
         <v>7</v>
@@ -29085,7 +29092,7 @@
         <v>8</v>
       </c>
       <c r="AA1004" s="19" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AB1004" s="20">
         <v>30</v>
@@ -29121,16 +29128,16 @@
     </row>
     <row r="1007" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1007" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1007" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1007" s="25">
         <v>5</v>
       </c>
       <c r="T1007" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1007" s="19" t="s">
         <v>95</v>
@@ -29142,7 +29149,7 @@
         <v>34</v>
       </c>
       <c r="X1007" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Y1007" s="19" t="s">
         <v>7</v>
@@ -29151,7 +29158,7 @@
         <v>8</v>
       </c>
       <c r="AA1007" s="19" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AB1007" s="20">
         <v>30</v>
@@ -29187,16 +29194,16 @@
     </row>
     <row r="1010" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1010" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1010" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1010" s="25">
         <v>5</v>
       </c>
       <c r="T1010" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1010" s="19" t="s">
         <v>98</v>
@@ -29205,10 +29212,10 @@
         <v>211</v>
       </c>
       <c r="W1010" s="19" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="X1010" s="19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y1010" s="19" t="s">
         <v>7</v>
@@ -29217,7 +29224,7 @@
         <v>8</v>
       </c>
       <c r="AA1010" s="19" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AB1010" s="20">
         <v>30</v>
@@ -29253,16 +29260,16 @@
     </row>
     <row r="1013" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1013" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1013" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1013" s="25">
         <v>5</v>
       </c>
       <c r="T1013" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1013" s="19" t="s">
         <v>104</v>
@@ -29271,10 +29278,10 @@
         <v>216</v>
       </c>
       <c r="W1013" s="19" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="X1013" s="19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y1013" s="19" t="s">
         <v>7</v>
@@ -29283,7 +29290,7 @@
         <v>8</v>
       </c>
       <c r="AA1013" s="19" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AB1013" s="20">
         <v>30</v>
@@ -29319,16 +29326,16 @@
     </row>
     <row r="1016" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1016" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1016" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1016" s="25">
         <v>5</v>
       </c>
       <c r="T1016" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1016" s="19" t="s">
         <v>107</v>
@@ -29337,10 +29344,10 @@
         <v>220</v>
       </c>
       <c r="W1016" s="19" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="X1016" s="19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y1016" s="19" t="s">
         <v>7</v>
@@ -29349,7 +29356,7 @@
         <v>8</v>
       </c>
       <c r="AA1016" s="19" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AB1016" s="20">
         <v>30</v>
@@ -29385,28 +29392,28 @@
     </row>
     <row r="1019" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1019" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1019" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1019" s="25">
         <v>5</v>
       </c>
       <c r="T1019" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1019" s="19" t="s">
         <v>112</v>
       </c>
       <c r="V1019" s="19" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="W1019" s="19" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="X1019" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y1019" s="19" t="s">
         <v>7</v>
@@ -29415,7 +29422,7 @@
         <v>8</v>
       </c>
       <c r="AA1019" s="19" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AB1019" s="20">
         <v>30</v>
@@ -29451,28 +29458,28 @@
     </row>
     <row r="1022" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1022" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1022" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1022" s="25">
         <v>5</v>
       </c>
       <c r="T1022" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1022" s="19" t="s">
         <v>115</v>
       </c>
       <c r="V1022" s="19" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="W1022" s="19" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="X1022" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y1022" s="19" t="s">
         <v>7</v>
@@ -29481,7 +29488,7 @@
         <v>8</v>
       </c>
       <c r="AA1022" s="19" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AB1022" s="20">
         <v>30</v>
@@ -29517,16 +29524,16 @@
     </row>
     <row r="1025" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1025" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1025" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1025" s="25">
         <v>5</v>
       </c>
       <c r="T1025" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1025" s="19" t="s">
         <v>16</v>
@@ -29535,10 +29542,10 @@
         <v>126</v>
       </c>
       <c r="W1025" s="19" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="X1025" s="19" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y1025" s="19" t="s">
         <v>7</v>
@@ -29547,7 +29554,7 @@
         <v>8</v>
       </c>
       <c r="AA1025" s="19" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AB1025" s="20">
         <v>30</v>
@@ -29583,28 +29590,28 @@
     </row>
     <row r="1028" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1028" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1028" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1028" s="25">
         <v>5</v>
       </c>
       <c r="T1028" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1028" s="19" t="s">
         <v>122</v>
       </c>
       <c r="V1028" s="19" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="W1028" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="X1028" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y1028" s="19" t="s">
         <v>7</v>
@@ -29613,7 +29620,7 @@
         <v>8</v>
       </c>
       <c r="AA1028" s="19" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AB1028" s="20">
         <v>30</v>
@@ -29649,28 +29656,28 @@
     </row>
     <row r="1031" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1031" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1031" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1031" s="25">
         <v>5</v>
       </c>
       <c r="T1031" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1031" s="19" t="s">
         <v>19</v>
       </c>
       <c r="V1031" s="19" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="W1031" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="X1031" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y1031" s="19" t="s">
         <v>7</v>
@@ -29679,7 +29686,7 @@
         <v>8</v>
       </c>
       <c r="AA1031" s="19" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AB1031" s="20">
         <v>30</v>
@@ -29715,28 +29722,28 @@
     </row>
     <row r="1034" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1034" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1034" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1034" s="25">
         <v>5</v>
       </c>
       <c r="T1034" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1034" s="19" t="s">
         <v>29</v>
       </c>
       <c r="V1034" s="19" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="W1034" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X1034" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y1034" s="19" t="s">
         <v>7</v>
@@ -29745,7 +29752,7 @@
         <v>8</v>
       </c>
       <c r="AA1034" s="19" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AB1034" s="20">
         <v>30</v>
@@ -29781,28 +29788,28 @@
     </row>
     <row r="1037" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1037" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1037" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1037" s="25">
         <v>5</v>
       </c>
       <c r="T1037" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1037" s="19" t="s">
         <v>289</v>
       </c>
       <c r="V1037" s="19" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="W1037" s="19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="X1037" s="19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Y1037" s="19" t="s">
         <v>7</v>
@@ -29811,7 +29818,7 @@
         <v>8</v>
       </c>
       <c r="AA1037" s="19" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AB1037" s="20">
         <v>30</v>
@@ -29847,28 +29854,28 @@
     </row>
     <row r="1040" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1040" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1040" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1040" s="25">
         <v>5</v>
       </c>
       <c r="T1040" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1040" s="19" t="s">
         <v>292</v>
       </c>
       <c r="V1040" s="19" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="W1040" s="19" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="X1040" s="19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Y1040" s="19" t="s">
         <v>7</v>
@@ -29877,7 +29884,7 @@
         <v>8</v>
       </c>
       <c r="AA1040" s="19" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AB1040" s="20">
         <v>30</v>
@@ -29913,28 +29920,28 @@
     </row>
     <row r="1043" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1043" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1043" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1043" s="25">
         <v>5</v>
       </c>
       <c r="T1043" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1043" s="19" t="s">
         <v>295</v>
       </c>
       <c r="V1043" s="19" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="W1043" s="19" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="X1043" s="19" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Y1043" s="19" t="s">
         <v>7</v>
@@ -29943,7 +29950,7 @@
         <v>8</v>
       </c>
       <c r="AA1043" s="19" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AB1043" s="20">
         <v>30</v>
@@ -29979,28 +29986,28 @@
     </row>
     <row r="1046" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1046" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1046" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1046" s="25">
         <v>5</v>
       </c>
       <c r="T1046" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1046" s="19" t="s">
         <v>298</v>
       </c>
       <c r="V1046" s="19" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="W1046" s="19" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="X1046" s="19" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Y1046" s="19" t="s">
         <v>7</v>
@@ -30009,7 +30016,7 @@
         <v>8</v>
       </c>
       <c r="AA1046" s="19" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AB1046" s="20">
         <v>30</v>
@@ -30045,28 +30052,28 @@
     </row>
     <row r="1049" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1049" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1049" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1049" s="25">
         <v>5</v>
       </c>
       <c r="T1049" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1049" s="19" t="s">
         <v>301</v>
       </c>
       <c r="V1049" s="19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="W1049" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X1049" s="19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Y1049" s="19" t="s">
         <v>7</v>
@@ -30075,7 +30082,7 @@
         <v>8</v>
       </c>
       <c r="AA1049" s="19" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AB1049" s="20">
         <v>30</v>
@@ -30111,28 +30118,28 @@
     </row>
     <row r="1052" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1052" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1052" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1052" s="25">
         <v>5</v>
       </c>
       <c r="T1052" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1052" s="19" t="s">
         <v>304</v>
       </c>
       <c r="V1052" s="19" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="W1052" s="19" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="X1052" s="19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Y1052" s="19" t="s">
         <v>7</v>
@@ -30141,7 +30148,7 @@
         <v>8</v>
       </c>
       <c r="AA1052" s="19" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AB1052" s="20">
         <v>30</v>
@@ -30177,28 +30184,28 @@
     </row>
     <row r="1055" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1055" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1055" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1055" s="25">
         <v>5</v>
       </c>
       <c r="T1055" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1055" s="19" t="s">
         <v>307</v>
       </c>
       <c r="V1055" s="19" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="W1055" s="19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="X1055" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y1055" s="19" t="s">
         <v>7</v>
@@ -30207,7 +30214,7 @@
         <v>8</v>
       </c>
       <c r="AA1055" s="19" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AB1055" s="20">
         <v>30</v>
@@ -30243,16 +30250,16 @@
     </row>
     <row r="1058" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1058" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1058" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1058" s="25">
         <v>5</v>
       </c>
       <c r="T1058" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1058" s="19" t="s">
         <v>125</v>
@@ -30261,10 +30268,10 @@
         <v>33</v>
       </c>
       <c r="W1058" s="19" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="X1058" s="19" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y1058" s="19" t="s">
         <v>7</v>
@@ -30273,7 +30280,7 @@
         <v>8</v>
       </c>
       <c r="AA1058" s="19" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AB1058" s="20">
         <v>30</v>
@@ -30309,28 +30316,28 @@
     </row>
     <row r="1061" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1061" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1061" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1061" s="25">
         <v>5</v>
       </c>
       <c r="T1061" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1061" s="19" t="s">
         <v>312</v>
       </c>
       <c r="V1061" s="19" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="W1061" s="19" t="s">
         <v>34</v>
       </c>
       <c r="X1061" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y1061" s="19" t="s">
         <v>7</v>
@@ -30339,7 +30346,7 @@
         <v>8</v>
       </c>
       <c r="AA1061" s="19" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AB1061" s="20">
         <v>30</v>
@@ -30375,28 +30382,28 @@
     </row>
     <row r="1064" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1064" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1064" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1064" s="25">
         <v>5</v>
       </c>
       <c r="T1064" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1064" s="19" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="V1064" s="19" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="W1064" s="19" t="s">
         <v>141</v>
       </c>
       <c r="X1064" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y1064" s="19" t="s">
         <v>7</v>
@@ -30405,7 +30412,7 @@
         <v>8</v>
       </c>
       <c r="AA1064" s="19" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AB1064" s="20">
         <v>30</v>
@@ -30441,28 +30448,28 @@
     </row>
     <row r="1067" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1067" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1067" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1067" s="25">
         <v>5</v>
       </c>
       <c r="T1067" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1067" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="V1067" s="19" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="W1067" s="19" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="X1067" s="19" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y1067" s="19" t="s">
         <v>7</v>
@@ -30471,7 +30478,7 @@
         <v>8</v>
       </c>
       <c r="AA1067" s="19" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AB1067" s="20">
         <v>30</v>
@@ -30507,28 +30514,28 @@
     </row>
     <row r="1070" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1070" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1070" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1070" s="25">
         <v>5</v>
       </c>
       <c r="T1070" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1070" s="19" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="V1070" s="19" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="W1070" s="19" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="X1070" s="19" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y1070" s="19" t="s">
         <v>7</v>
@@ -30537,7 +30544,7 @@
         <v>8</v>
       </c>
       <c r="AA1070" s="19" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AB1070" s="20">
         <v>30</v>
@@ -30573,28 +30580,28 @@
     </row>
     <row r="1073" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1073" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1073" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1073" s="25">
         <v>5</v>
       </c>
       <c r="T1073" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1073" s="19" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="V1073" s="19" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="W1073" s="19" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="X1073" s="19" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y1073" s="19" t="s">
         <v>7</v>
@@ -30603,7 +30610,7 @@
         <v>8</v>
       </c>
       <c r="AA1073" s="19" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AB1073" s="20">
         <v>30</v>
@@ -30639,16 +30646,16 @@
     </row>
     <row r="1076" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1076" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1076" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1076" s="25">
         <v>5</v>
       </c>
       <c r="T1076" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1076" s="19" t="s">
         <v>132</v>
@@ -30660,7 +30667,7 @@
         <v>34</v>
       </c>
       <c r="X1076" s="19" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y1076" s="19" t="s">
         <v>7</v>
@@ -30669,7 +30676,7 @@
         <v>8</v>
       </c>
       <c r="AA1076" s="19" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AB1076" s="20">
         <v>30</v>
@@ -30705,16 +30712,16 @@
     </row>
     <row r="1079" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1079" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1079" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1079" s="25">
         <v>5</v>
       </c>
       <c r="T1079" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1079" s="19" t="s">
         <v>32</v>
@@ -30726,7 +30733,7 @@
         <v>141</v>
       </c>
       <c r="X1079" s="19" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y1079" s="19" t="s">
         <v>7</v>
@@ -30735,7 +30742,7 @@
         <v>8</v>
       </c>
       <c r="AA1079" s="19" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AB1079" s="20">
         <v>30</v>
@@ -30771,16 +30778,16 @@
     </row>
     <row r="1082" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1082" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1082" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1082" s="25">
         <v>5</v>
       </c>
       <c r="T1082" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1082" s="19" t="s">
         <v>43</v>
@@ -30792,7 +30799,7 @@
         <v>34</v>
       </c>
       <c r="X1082" s="19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Y1082" s="19" t="s">
         <v>7</v>
@@ -30801,7 +30808,7 @@
         <v>8</v>
       </c>
       <c r="AA1082" s="19" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AB1082" s="20">
         <v>30</v>
@@ -30837,16 +30844,16 @@
     </row>
     <row r="1085" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1085" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1085" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1085" s="25">
         <v>5</v>
       </c>
       <c r="T1085" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1085" s="19" t="s">
         <v>46</v>
@@ -30858,7 +30865,7 @@
         <v>141</v>
       </c>
       <c r="X1085" s="19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Y1085" s="19" t="s">
         <v>7</v>
@@ -30867,7 +30874,7 @@
         <v>8</v>
       </c>
       <c r="AA1085" s="19" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AB1085" s="20">
         <v>30</v>
@@ -30903,16 +30910,16 @@
     </row>
     <row r="1088" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1088" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1088" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1088" s="25">
         <v>5</v>
       </c>
       <c r="T1088" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1088" s="19" t="s">
         <v>56</v>
@@ -30924,7 +30931,7 @@
         <v>474</v>
       </c>
       <c r="X1088" s="19" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y1088" s="19" t="s">
         <v>7</v>
@@ -30933,7 +30940,7 @@
         <v>8</v>
       </c>
       <c r="AA1088" s="19" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AB1088" s="20">
         <v>30</v>
@@ -30969,16 +30976,16 @@
     </row>
     <row r="1091" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1091" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1091" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1091" s="25">
         <v>5</v>
       </c>
       <c r="T1091" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1091" s="19" t="s">
         <v>143</v>
@@ -30990,7 +30997,7 @@
         <v>162</v>
       </c>
       <c r="X1091" s="19" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y1091" s="19" t="s">
         <v>7</v>
@@ -30999,7 +31006,7 @@
         <v>8</v>
       </c>
       <c r="AA1091" s="19" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AB1091" s="20">
         <v>30</v>
@@ -31035,25 +31042,25 @@
     </row>
     <row r="1094" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1094" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R1094" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1094" s="25">
         <v>5</v>
       </c>
       <c r="T1094" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="U1094" s="19" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="V1094" s="19" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="W1094" s="19" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="X1094" s="19" t="s">
         <v>2</v>
@@ -31065,7 +31072,7 @@
         <v>8</v>
       </c>
       <c r="AA1094" s="19" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AB1094" s="20">
         <v>500</v>
@@ -31115,10 +31122,10 @@
     </row>
     <row r="1098" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1098" s="18" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="R1098" s="19" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="S1098" s="25">
         <v>30</v>
@@ -31133,10 +31140,10 @@
         <v>11</v>
       </c>
       <c r="W1098" s="19" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="X1098" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y1098" s="19" t="s">
         <v>7</v>
@@ -31145,7 +31152,7 @@
         <v>8</v>
       </c>
       <c r="AA1098" s="19" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AB1098" s="20">
         <v>1</v>
@@ -31195,10 +31202,10 @@
     </row>
     <row r="1102" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1102" s="18" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="R1102" s="19" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="S1102" s="25">
         <v>6</v>
@@ -31216,7 +31223,7 @@
         <v>158</v>
       </c>
       <c r="X1102" s="19" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Y1102" s="19" t="s">
         <v>7</v>
@@ -31225,7 +31232,7 @@
         <v>8</v>
       </c>
       <c r="AA1102" s="19" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AB1102" s="20">
         <v>100</v>
@@ -31275,28 +31282,28 @@
     </row>
     <row r="1106" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1106" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1106" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1106" s="25">
         <v>5</v>
       </c>
       <c r="T1106" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1106" s="19" t="s">
         <v>3</v>
       </c>
       <c r="V1106" s="19" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="W1106" s="19" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="X1106" s="19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Y1106" s="19" t="s">
         <v>7</v>
@@ -31305,7 +31312,7 @@
         <v>8</v>
       </c>
       <c r="AA1106" s="19" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AB1106" s="20">
         <v>30</v>
@@ -31341,28 +31348,28 @@
     </row>
     <row r="1109" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1109" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1109" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1109" s="25">
         <v>5</v>
       </c>
       <c r="T1109" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1109" s="19" t="s">
         <v>66</v>
       </c>
       <c r="V1109" s="19" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="W1109" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="X1109" s="19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Y1109" s="19" t="s">
         <v>7</v>
@@ -31371,7 +31378,7 @@
         <v>8</v>
       </c>
       <c r="AA1109" s="19" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AB1109" s="20">
         <v>30</v>
@@ -31407,28 +31414,28 @@
     </row>
     <row r="1112" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1112" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1112" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1112" s="25">
         <v>5</v>
       </c>
       <c r="T1112" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1112" s="19" t="s">
         <v>78</v>
       </c>
       <c r="V1112" s="19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="W1112" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X1112" s="19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Y1112" s="19" t="s">
         <v>7</v>
@@ -31437,7 +31444,7 @@
         <v>8</v>
       </c>
       <c r="AA1112" s="19" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AB1112" s="20">
         <v>30</v>
@@ -31473,28 +31480,28 @@
     </row>
     <row r="1115" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1115" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1115" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1115" s="25">
         <v>5</v>
       </c>
       <c r="T1115" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1115" s="19" t="s">
         <v>85</v>
       </c>
       <c r="V1115" s="19" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="W1115" s="19" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="X1115" s="19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Y1115" s="19" t="s">
         <v>7</v>
@@ -31503,7 +31510,7 @@
         <v>8</v>
       </c>
       <c r="AA1115" s="19" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AB1115" s="20">
         <v>30</v>
@@ -31539,28 +31546,28 @@
     </row>
     <row r="1118" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1118" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1118" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1118" s="25">
         <v>5</v>
       </c>
       <c r="T1118" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1118" s="19" t="s">
         <v>87</v>
       </c>
       <c r="V1118" s="19" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="W1118" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="X1118" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y1118" s="19" t="s">
         <v>7</v>
@@ -31569,7 +31576,7 @@
         <v>8</v>
       </c>
       <c r="AA1118" s="19" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AB1118" s="20">
         <v>30</v>
@@ -31605,28 +31612,28 @@
     </row>
     <row r="1121" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1121" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1121" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1121" s="25">
         <v>5</v>
       </c>
       <c r="T1121" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1121" s="19" t="s">
         <v>95</v>
       </c>
       <c r="V1121" s="19" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="W1121" s="19" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X1121" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y1121" s="19" t="s">
         <v>7</v>
@@ -31635,7 +31642,7 @@
         <v>8</v>
       </c>
       <c r="AA1121" s="19" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AB1121" s="20">
         <v>30</v>
@@ -31671,28 +31678,28 @@
     </row>
     <row r="1124" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1124" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1124" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1124" s="25">
         <v>5</v>
       </c>
       <c r="T1124" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1124" s="19" t="s">
         <v>98</v>
       </c>
       <c r="V1124" s="19" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="W1124" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X1124" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y1124" s="19" t="s">
         <v>7</v>
@@ -31701,7 +31708,7 @@
         <v>8</v>
       </c>
       <c r="AA1124" s="19" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AB1124" s="20">
         <v>30</v>
@@ -31737,28 +31744,28 @@
     </row>
     <row r="1127" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1127" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1127" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1127" s="25">
         <v>5</v>
       </c>
       <c r="T1127" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1127" s="19" t="s">
         <v>104</v>
       </c>
       <c r="V1127" s="19" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="W1127" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X1127" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y1127" s="19" t="s">
         <v>7</v>
@@ -31767,7 +31774,7 @@
         <v>8</v>
       </c>
       <c r="AA1127" s="19" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AB1127" s="20">
         <v>30</v>
@@ -31803,28 +31810,28 @@
     </row>
     <row r="1130" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1130" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1130" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1130" s="25">
         <v>5</v>
       </c>
       <c r="T1130" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1130" s="19" t="s">
         <v>107</v>
       </c>
       <c r="V1130" s="19" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="W1130" s="19" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="X1130" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y1130" s="19" t="s">
         <v>7</v>
@@ -31833,7 +31840,7 @@
         <v>8</v>
       </c>
       <c r="AA1130" s="19" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AB1130" s="20">
         <v>30</v>
@@ -31869,28 +31876,28 @@
     </row>
     <row r="1133" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1133" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1133" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1133" s="25">
         <v>5</v>
       </c>
       <c r="T1133" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1133" s="19" t="s">
         <v>112</v>
       </c>
       <c r="V1133" s="19" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="W1133" s="19" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="X1133" s="19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Y1133" s="19" t="s">
         <v>7</v>
@@ -31899,7 +31906,7 @@
         <v>8</v>
       </c>
       <c r="AA1133" s="19" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AB1133" s="20">
         <v>30</v>
@@ -31935,28 +31942,28 @@
     </row>
     <row r="1136" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1136" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1136" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1136" s="25">
         <v>5</v>
       </c>
       <c r="T1136" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1136" s="19" t="s">
         <v>115</v>
       </c>
       <c r="V1136" s="19" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="W1136" s="19" t="s">
         <v>34</v>
       </c>
       <c r="X1136" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Y1136" s="19" t="s">
         <v>7</v>
@@ -31965,7 +31972,7 @@
         <v>8</v>
       </c>
       <c r="AA1136" s="19" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AB1136" s="20">
         <v>30</v>
@@ -32001,28 +32008,28 @@
     </row>
     <row r="1139" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1139" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1139" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1139" s="25">
         <v>5</v>
       </c>
       <c r="T1139" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1139" s="19" t="s">
         <v>16</v>
       </c>
       <c r="V1139" s="19" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="W1139" s="19" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="X1139" s="19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Y1139" s="19" t="s">
         <v>7</v>
@@ -32031,7 +32038,7 @@
         <v>8</v>
       </c>
       <c r="AA1139" s="19" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AB1139" s="20">
         <v>30</v>
@@ -32067,28 +32074,28 @@
     </row>
     <row r="1142" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1142" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1142" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1142" s="25">
         <v>5</v>
       </c>
       <c r="T1142" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1142" s="19" t="s">
         <v>122</v>
       </c>
       <c r="V1142" s="19" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="W1142" s="19" t="s">
         <v>141</v>
       </c>
       <c r="X1142" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Y1142" s="19" t="s">
         <v>7</v>
@@ -32097,7 +32104,7 @@
         <v>8</v>
       </c>
       <c r="AA1142" s="19" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AB1142" s="20">
         <v>30</v>
@@ -32133,28 +32140,28 @@
     </row>
     <row r="1145" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1145" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1145" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1145" s="25">
         <v>5</v>
       </c>
       <c r="T1145" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1145" s="19" t="s">
         <v>19</v>
       </c>
       <c r="V1145" s="19" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="W1145" s="19" t="s">
         <v>385</v>
       </c>
       <c r="X1145" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Y1145" s="19" t="s">
         <v>7</v>
@@ -32163,7 +32170,7 @@
         <v>8</v>
       </c>
       <c r="AA1145" s="19" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AB1145" s="20">
         <v>30</v>
@@ -32199,28 +32206,28 @@
     </row>
     <row r="1148" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1148" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1148" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1148" s="25">
         <v>5</v>
       </c>
       <c r="T1148" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1148" s="19" t="s">
         <v>29</v>
       </c>
       <c r="V1148" s="19" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="W1148" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="X1148" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Y1148" s="19" t="s">
         <v>7</v>
@@ -32229,7 +32236,7 @@
         <v>8</v>
       </c>
       <c r="AA1148" s="19" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AB1148" s="20">
         <v>30</v>
@@ -32265,28 +32272,28 @@
     </row>
     <row r="1151" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1151" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1151" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1151" s="25">
         <v>5</v>
       </c>
       <c r="T1151" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1151" s="19" t="s">
         <v>289</v>
       </c>
       <c r="V1151" s="19" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="W1151" s="19" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="X1151" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Y1151" s="19" t="s">
         <v>7</v>
@@ -32295,7 +32302,7 @@
         <v>8</v>
       </c>
       <c r="AA1151" s="19" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AB1151" s="20">
         <v>30</v>
@@ -32331,28 +32338,28 @@
     </row>
     <row r="1154" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1154" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1154" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1154" s="25">
         <v>5</v>
       </c>
       <c r="T1154" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1154" s="19" t="s">
         <v>292</v>
       </c>
       <c r="V1154" s="19" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="W1154" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="X1154" s="19" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y1154" s="19" t="s">
         <v>7</v>
@@ -32361,7 +32368,7 @@
         <v>8</v>
       </c>
       <c r="AA1154" s="19" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AB1154" s="20">
         <v>30</v>
@@ -32397,28 +32404,28 @@
     </row>
     <row r="1157" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1157" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1157" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1157" s="25">
         <v>5</v>
       </c>
       <c r="T1157" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1157" s="19" t="s">
         <v>295</v>
       </c>
       <c r="V1157" s="19" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="W1157" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="X1157" s="19" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y1157" s="19" t="s">
         <v>7</v>
@@ -32427,7 +32434,7 @@
         <v>8</v>
       </c>
       <c r="AA1157" s="19" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AB1157" s="20">
         <v>30</v>
@@ -32463,28 +32470,28 @@
     </row>
     <row r="1160" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1160" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1160" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1160" s="25">
         <v>5</v>
       </c>
       <c r="T1160" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1160" s="19" t="s">
         <v>298</v>
       </c>
       <c r="V1160" s="19" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="W1160" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X1160" s="19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Y1160" s="19" t="s">
         <v>7</v>
@@ -32493,7 +32500,7 @@
         <v>8</v>
       </c>
       <c r="AA1160" s="19" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AB1160" s="20">
         <v>30</v>
@@ -32529,28 +32536,28 @@
     </row>
     <row r="1163" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1163" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1163" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1163" s="25">
         <v>5</v>
       </c>
       <c r="T1163" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1163" s="19" t="s">
         <v>301</v>
       </c>
       <c r="V1163" s="19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="W1163" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X1163" s="19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Y1163" s="19" t="s">
         <v>7</v>
@@ -32559,7 +32566,7 @@
         <v>8</v>
       </c>
       <c r="AA1163" s="19" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AB1163" s="20">
         <v>30</v>
@@ -32595,28 +32602,28 @@
     </row>
     <row r="1166" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1166" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1166" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1166" s="25">
         <v>5</v>
       </c>
       <c r="T1166" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1166" s="19" t="s">
         <v>304</v>
       </c>
       <c r="V1166" s="19" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="W1166" s="19" t="s">
         <v>385</v>
       </c>
       <c r="X1166" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Y1166" s="19" t="s">
         <v>7</v>
@@ -32625,7 +32632,7 @@
         <v>8</v>
       </c>
       <c r="AA1166" s="19" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AB1166" s="20">
         <v>30</v>
@@ -32661,28 +32668,28 @@
     </row>
     <row r="1169" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1169" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1169" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1169" s="25">
         <v>5</v>
       </c>
       <c r="T1169" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1169" s="19" t="s">
         <v>307</v>
       </c>
       <c r="V1169" s="19" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="W1169" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="X1169" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Y1169" s="19" t="s">
         <v>7</v>
@@ -32691,7 +32698,7 @@
         <v>8</v>
       </c>
       <c r="AA1169" s="19" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AB1169" s="20">
         <v>30</v>
@@ -32727,28 +32734,28 @@
     </row>
     <row r="1172" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1172" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1172" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1172" s="25">
         <v>5</v>
       </c>
       <c r="T1172" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1172" s="19" t="s">
         <v>125</v>
       </c>
       <c r="V1172" s="19" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="W1172" s="19" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="X1172" s="19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Y1172" s="19" t="s">
         <v>7</v>
@@ -32757,7 +32764,7 @@
         <v>8</v>
       </c>
       <c r="AA1172" s="19" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AB1172" s="20">
         <v>30</v>
@@ -32793,28 +32800,28 @@
     </row>
     <row r="1175" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1175" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1175" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1175" s="25">
         <v>5</v>
       </c>
       <c r="T1175" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1175" s="19" t="s">
         <v>312</v>
       </c>
       <c r="V1175" s="19" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="W1175" s="19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="X1175" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Y1175" s="19" t="s">
         <v>7</v>
@@ -32823,7 +32830,7 @@
         <v>8</v>
       </c>
       <c r="AA1175" s="19" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AB1175" s="20">
         <v>30</v>
@@ -32859,28 +32866,28 @@
     </row>
     <row r="1178" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1178" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1178" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1178" s="25">
         <v>5</v>
       </c>
       <c r="T1178" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1178" s="19" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="V1178" s="19" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="W1178" s="19" t="s">
         <v>34</v>
       </c>
       <c r="X1178" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Y1178" s="19" t="s">
         <v>7</v>
@@ -32889,7 +32896,7 @@
         <v>8</v>
       </c>
       <c r="AA1178" s="19" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AB1178" s="20">
         <v>30</v>
@@ -32925,28 +32932,28 @@
     </row>
     <row r="1181" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1181" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1181" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1181" s="25">
         <v>5</v>
       </c>
       <c r="T1181" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1181" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="V1181" s="19" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="W1181" s="19" t="s">
         <v>141</v>
       </c>
       <c r="X1181" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Y1181" s="19" t="s">
         <v>7</v>
@@ -32955,7 +32962,7 @@
         <v>8</v>
       </c>
       <c r="AA1181" s="19" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AB1181" s="20">
         <v>30</v>
@@ -32991,28 +32998,28 @@
     </row>
     <row r="1184" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1184" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1184" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1184" s="25">
         <v>5</v>
       </c>
       <c r="T1184" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1184" s="19" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="V1184" s="19" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="W1184" s="19" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="X1184" s="19" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y1184" s="19" t="s">
         <v>7</v>
@@ -33021,7 +33028,7 @@
         <v>8</v>
       </c>
       <c r="AA1184" s="19" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AB1184" s="20">
         <v>30</v>
@@ -33057,28 +33064,28 @@
     </row>
     <row r="1187" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1187" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1187" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1187" s="25">
         <v>5</v>
       </c>
       <c r="T1187" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1187" s="19" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="V1187" s="19" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="W1187" s="19" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="X1187" s="19" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y1187" s="19" t="s">
         <v>7</v>
@@ -33087,7 +33094,7 @@
         <v>8</v>
       </c>
       <c r="AA1187" s="19" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AB1187" s="20">
         <v>30</v>
@@ -33123,28 +33130,28 @@
     </row>
     <row r="1190" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1190" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1190" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1190" s="25">
         <v>5</v>
       </c>
       <c r="T1190" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1190" s="19" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="V1190" s="19" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="W1190" s="19" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="X1190" s="19" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y1190" s="19" t="s">
         <v>7</v>
@@ -33153,7 +33160,7 @@
         <v>8</v>
       </c>
       <c r="AA1190" s="19" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AB1190" s="20">
         <v>30</v>
@@ -33189,28 +33196,28 @@
     </row>
     <row r="1193" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1193" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1193" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1193" s="25">
         <v>5</v>
       </c>
       <c r="T1193" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1193" s="19" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="V1193" s="19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="W1193" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X1193" s="19" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y1193" s="19" t="s">
         <v>7</v>
@@ -33219,7 +33226,7 @@
         <v>8</v>
       </c>
       <c r="AA1193" s="19" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AB1193" s="20">
         <v>30</v>
@@ -33255,28 +33262,28 @@
     </row>
     <row r="1196" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1196" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1196" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1196" s="25">
         <v>5</v>
       </c>
       <c r="T1196" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1196" s="19" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="V1196" s="19" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="W1196" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X1196" s="19" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y1196" s="19" t="s">
         <v>7</v>
@@ -33285,7 +33292,7 @@
         <v>8</v>
       </c>
       <c r="AA1196" s="19" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AB1196" s="20">
         <v>30</v>
@@ -33321,28 +33328,28 @@
     </row>
     <row r="1199" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1199" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1199" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1199" s="25">
         <v>5</v>
       </c>
       <c r="T1199" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1199" s="19" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="V1199" s="19" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="W1199" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="X1199" s="19" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Y1199" s="19" t="s">
         <v>7</v>
@@ -33351,7 +33358,7 @@
         <v>8</v>
       </c>
       <c r="AA1199" s="19" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AB1199" s="20">
         <v>30</v>
@@ -33387,28 +33394,28 @@
     </row>
     <row r="1202" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1202" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1202" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1202" s="25">
         <v>5</v>
       </c>
       <c r="T1202" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1202" s="19" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="V1202" s="19" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="W1202" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="X1202" s="19" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Y1202" s="19" t="s">
         <v>7</v>
@@ -33417,7 +33424,7 @@
         <v>8</v>
       </c>
       <c r="AA1202" s="19" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AB1202" s="20">
         <v>30</v>
@@ -33453,28 +33460,28 @@
     </row>
     <row r="1205" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1205" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1205" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1205" s="25">
         <v>5</v>
       </c>
       <c r="T1205" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1205" s="19" t="s">
         <v>132</v>
       </c>
       <c r="V1205" s="19" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="W1205" s="19" t="s">
         <v>34</v>
       </c>
       <c r="X1205" s="19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Y1205" s="19" t="s">
         <v>7</v>
@@ -33483,7 +33490,7 @@
         <v>8</v>
       </c>
       <c r="AA1205" s="19" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AB1205" s="20">
         <v>30</v>
@@ -33519,28 +33526,28 @@
     </row>
     <row r="1208" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1208" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1208" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1208" s="25">
         <v>5</v>
       </c>
       <c r="T1208" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1208" s="19" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="V1208" s="19" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="W1208" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="X1208" s="19" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Y1208" s="19" t="s">
         <v>7</v>
@@ -33549,7 +33556,7 @@
         <v>8</v>
       </c>
       <c r="AA1208" s="19" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AB1208" s="20">
         <v>30</v>
@@ -33585,28 +33592,28 @@
     </row>
     <row r="1211" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1211" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1211" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1211" s="25">
         <v>5</v>
       </c>
       <c r="T1211" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1211" s="19" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="V1211" s="19" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="W1211" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X1211" s="19" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Y1211" s="19" t="s">
         <v>7</v>
@@ -33615,7 +33622,7 @@
         <v>8</v>
       </c>
       <c r="AA1211" s="19" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AB1211" s="20">
         <v>30</v>
@@ -33651,28 +33658,28 @@
     </row>
     <row r="1214" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1214" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1214" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1214" s="25">
         <v>5</v>
       </c>
       <c r="T1214" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1214" s="19" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="V1214" s="19" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="W1214" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X1214" s="19" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Y1214" s="19" t="s">
         <v>7</v>
@@ -33681,7 +33688,7 @@
         <v>8</v>
       </c>
       <c r="AA1214" s="19" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AB1214" s="20">
         <v>30</v>
@@ -33717,28 +33724,28 @@
     </row>
     <row r="1217" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1217" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1217" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1217" s="25">
         <v>5</v>
       </c>
       <c r="T1217" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1217" s="19" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="V1217" s="19" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="W1217" s="19" t="s">
         <v>385</v>
       </c>
       <c r="X1217" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Y1217" s="19" t="s">
         <v>7</v>
@@ -33747,7 +33754,7 @@
         <v>8</v>
       </c>
       <c r="AA1217" s="19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AB1217" s="20">
         <v>30</v>
@@ -33783,28 +33790,28 @@
     </row>
     <row r="1220" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1220" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1220" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1220" s="25">
         <v>5</v>
       </c>
       <c r="T1220" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1220" s="19" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="V1220" s="19" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="W1220" s="19" t="s">
         <v>34</v>
       </c>
       <c r="X1220" s="19" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="Y1220" s="19" t="s">
         <v>7</v>
@@ -33813,7 +33820,7 @@
         <v>8</v>
       </c>
       <c r="AA1220" s="19" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AB1220" s="20">
         <v>30</v>
@@ -33849,28 +33856,28 @@
     </row>
     <row r="1223" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1223" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1223" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1223" s="25">
         <v>5</v>
       </c>
       <c r="T1223" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1223" s="19" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="V1223" s="19" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="W1223" s="19" t="s">
         <v>141</v>
       </c>
       <c r="X1223" s="19" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="Y1223" s="19" t="s">
         <v>7</v>
@@ -33879,7 +33886,7 @@
         <v>8</v>
       </c>
       <c r="AA1223" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AB1223" s="20">
         <v>30</v>
@@ -33915,28 +33922,28 @@
     </row>
     <row r="1226" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1226" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1226" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1226" s="25">
         <v>5</v>
       </c>
       <c r="T1226" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1226" s="19" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="V1226" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="W1226" s="19" t="s">
         <v>385</v>
       </c>
       <c r="X1226" s="19" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="Y1226" s="19" t="s">
         <v>7</v>
@@ -33945,7 +33952,7 @@
         <v>8</v>
       </c>
       <c r="AA1226" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AB1226" s="20">
         <v>30</v>
@@ -33981,28 +33988,28 @@
     </row>
     <row r="1229" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1229" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1229" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1229" s="25">
         <v>5</v>
       </c>
       <c r="T1229" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1229" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="V1229" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="W1229" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="X1229" s="19" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="Y1229" s="19" t="s">
         <v>7</v>
@@ -34011,7 +34018,7 @@
         <v>8</v>
       </c>
       <c r="AA1229" s="19" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AB1229" s="20">
         <v>30</v>
@@ -34047,28 +34054,28 @@
     </row>
     <row r="1232" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1232" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1232" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1232" s="25">
         <v>5</v>
       </c>
       <c r="T1232" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1232" s="19" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="V1232" s="19" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="W1232" s="19" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="X1232" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Y1232" s="19" t="s">
         <v>7</v>
@@ -34077,7 +34084,7 @@
         <v>8</v>
       </c>
       <c r="AA1232" s="19" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AB1232" s="20">
         <v>30</v>
@@ -34113,28 +34120,28 @@
     </row>
     <row r="1235" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1235" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1235" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1235" s="25">
         <v>5</v>
       </c>
       <c r="T1235" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1235" s="19" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="V1235" s="19" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="W1235" s="19" t="s">
         <v>141</v>
       </c>
       <c r="X1235" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y1235" s="19" t="s">
         <v>7</v>
@@ -34143,7 +34150,7 @@
         <v>8</v>
       </c>
       <c r="AA1235" s="19" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AB1235" s="20">
         <v>30</v>
@@ -34179,28 +34186,28 @@
     </row>
     <row r="1238" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1238" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1238" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1238" s="25">
         <v>5</v>
       </c>
       <c r="T1238" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1238" s="19" t="s">
         <v>32</v>
       </c>
       <c r="V1238" s="19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="W1238" s="19" t="s">
         <v>141</v>
       </c>
       <c r="X1238" s="19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Y1238" s="19" t="s">
         <v>7</v>
@@ -34209,7 +34216,7 @@
         <v>8</v>
       </c>
       <c r="AA1238" s="19" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AB1238" s="20">
         <v>30</v>
@@ -34245,28 +34252,28 @@
     </row>
     <row r="1241" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1241" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1241" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1241" s="25">
         <v>5</v>
       </c>
       <c r="T1241" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1241" s="19" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="V1241" s="19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="W1241" s="19" t="s">
         <v>162</v>
       </c>
       <c r="X1241" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Y1241" s="19" t="s">
         <v>7</v>
@@ -34275,7 +34282,7 @@
         <v>8</v>
       </c>
       <c r="AA1241" s="19" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AB1241" s="20">
         <v>30</v>
@@ -34311,28 +34318,28 @@
     </row>
     <row r="1244" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1244" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1244" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1244" s="25">
         <v>5</v>
       </c>
       <c r="T1244" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1244" s="19" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="V1244" s="19" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="W1244" s="19" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="X1244" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Y1244" s="19" t="s">
         <v>7</v>
@@ -34341,7 +34348,7 @@
         <v>8</v>
       </c>
       <c r="AA1244" s="19" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AB1244" s="20">
         <v>30</v>
@@ -34377,28 +34384,28 @@
     </row>
     <row r="1247" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1247" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1247" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1247" s="25">
         <v>5</v>
       </c>
       <c r="T1247" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1247" s="19" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="V1247" s="19" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="W1247" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="X1247" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y1247" s="19" t="s">
         <v>7</v>
@@ -34407,7 +34414,7 @@
         <v>8</v>
       </c>
       <c r="AA1247" s="19" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AB1247" s="20">
         <v>30</v>
@@ -34443,28 +34450,28 @@
     </row>
     <row r="1250" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1250" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1250" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1250" s="25">
         <v>5</v>
       </c>
       <c r="T1250" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1250" s="19" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="V1250" s="19" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="W1250" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="X1250" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y1250" s="19" t="s">
         <v>7</v>
@@ -34473,7 +34480,7 @@
         <v>8</v>
       </c>
       <c r="AA1250" s="19" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AB1250" s="20">
         <v>30</v>
@@ -34509,37 +34516,37 @@
     </row>
     <row r="1253" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1253" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1253" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1253" s="25">
         <v>5</v>
       </c>
       <c r="T1253" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1253" s="19" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="V1253" s="19" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="W1253" s="19" t="s">
         <v>53</v>
       </c>
       <c r="X1253" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y1253" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1253" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1253" s="19" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AB1253" s="20">
         <v>30</v>
@@ -34575,37 +34582,37 @@
     </row>
     <row r="1256" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1256" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1256" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1256" s="25">
         <v>5</v>
       </c>
       <c r="T1256" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1256" s="19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="V1256" s="19" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="W1256" s="19" t="s">
         <v>68</v>
       </c>
       <c r="X1256" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y1256" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1256" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1256" s="19" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AB1256" s="20">
         <v>30</v>
@@ -34641,37 +34648,37 @@
     </row>
     <row r="1259" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1259" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1259" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1259" s="25">
         <v>5</v>
       </c>
       <c r="T1259" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1259" s="19" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="V1259" s="19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="W1259" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="X1259" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y1259" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1259" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1259" s="19" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AB1259" s="20">
         <v>30</v>
@@ -34707,37 +34714,37 @@
     </row>
     <row r="1262" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1262" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1262" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1262" s="25">
         <v>5</v>
       </c>
       <c r="T1262" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1262" s="19" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="V1262" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="W1262" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X1262" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y1262" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1262" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1262" s="19" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AB1262" s="20">
         <v>30</v>
@@ -34773,37 +34780,37 @@
     </row>
     <row r="1265" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1265" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1265" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1265" s="25">
         <v>5</v>
       </c>
       <c r="T1265" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1265" s="19" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="V1265" s="19" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="W1265" s="19" t="s">
         <v>385</v>
       </c>
       <c r="X1265" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y1265" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1265" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1265" s="19" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AB1265" s="20">
         <v>30</v>
@@ -34839,37 +34846,37 @@
     </row>
     <row r="1268" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1268" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1268" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1268" s="25">
         <v>5</v>
       </c>
       <c r="T1268" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1268" s="19" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="V1268" s="19" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="W1268" s="19" t="s">
         <v>385</v>
       </c>
       <c r="X1268" s="19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Y1268" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1268" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1268" s="19" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AB1268" s="20">
         <v>30</v>
@@ -34905,28 +34912,28 @@
     </row>
     <row r="1271" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1271" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1271" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1271" s="25">
         <v>5</v>
       </c>
       <c r="T1271" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1271" s="19" t="s">
         <v>43</v>
       </c>
       <c r="V1271" s="19" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="W1271" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="X1271" s="19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Y1271" s="19" t="s">
         <v>7</v>
@@ -34935,7 +34942,7 @@
         <v>8</v>
       </c>
       <c r="AA1271" s="19" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AB1271" s="20">
         <v>30</v>
@@ -34971,37 +34978,37 @@
     </row>
     <row r="1274" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1274" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1274" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1274" s="25">
         <v>5</v>
       </c>
       <c r="T1274" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1274" s="19" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="V1274" s="19" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="W1274" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="X1274" s="19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Y1274" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1274" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1274" s="19" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AB1274" s="20">
         <v>30</v>
@@ -35037,37 +35044,37 @@
     </row>
     <row r="1277" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1277" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1277" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1277" s="25">
         <v>5</v>
       </c>
       <c r="T1277" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1277" s="19" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="V1277" s="19" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="W1277" s="19" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="X1277" s="19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Y1277" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1277" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1277" s="19" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AB1277" s="20">
         <v>30</v>
@@ -35103,37 +35110,37 @@
     </row>
     <row r="1280" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1280" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1280" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1280" s="25">
         <v>5</v>
       </c>
       <c r="T1280" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1280" s="19" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="V1280" s="19" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="W1280" s="19" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="X1280" s="19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Y1280" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1280" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1280" s="19" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AB1280" s="20">
         <v>30</v>
@@ -35169,37 +35176,37 @@
     </row>
     <row r="1283" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1283" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1283" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1283" s="25">
         <v>5</v>
       </c>
       <c r="T1283" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1283" s="19" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="V1283" s="19" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="W1283" s="19" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="X1283" s="19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Y1283" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1283" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1283" s="19" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AB1283" s="20">
         <v>30</v>
@@ -35235,37 +35242,37 @@
     </row>
     <row r="1286" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1286" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1286" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1286" s="25">
         <v>5</v>
       </c>
       <c r="T1286" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1286" s="19" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="V1286" s="19" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="W1286" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X1286" s="19" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y1286" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1286" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1286" s="19" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AB1286" s="20">
         <v>30</v>
@@ -35301,37 +35308,37 @@
     </row>
     <row r="1289" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1289" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1289" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1289" s="25">
         <v>5</v>
       </c>
       <c r="T1289" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1289" s="19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="V1289" s="19" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="W1289" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="X1289" s="19" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y1289" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1289" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1289" s="19" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AB1289" s="20">
         <v>30</v>
@@ -35367,37 +35374,37 @@
     </row>
     <row r="1292" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1292" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1292" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1292" s="25">
         <v>5</v>
       </c>
       <c r="T1292" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1292" s="19" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="V1292" s="19" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="W1292" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="X1292" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y1292" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1292" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1292" s="19" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AB1292" s="20">
         <v>30</v>
@@ -35433,37 +35440,37 @@
     </row>
     <row r="1295" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1295" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1295" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1295" s="25">
         <v>5</v>
       </c>
       <c r="T1295" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1295" s="19" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="V1295" s="19" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="W1295" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="X1295" s="19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Y1295" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z1295" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AA1295" s="19" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AB1295" s="20">
         <v>30</v>
@@ -35499,28 +35506,28 @@
     </row>
     <row r="1298" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1298" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1298" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1298" s="25">
         <v>5</v>
       </c>
       <c r="T1298" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1298" s="19" t="s">
         <v>46</v>
       </c>
       <c r="V1298" s="19" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="W1298" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X1298" s="19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Y1298" s="19" t="s">
         <v>7</v>
@@ -35529,7 +35536,7 @@
         <v>8</v>
       </c>
       <c r="AA1298" s="19" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AB1298" s="20">
         <v>30</v>
@@ -35565,28 +35572,28 @@
     </row>
     <row r="1301" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1301" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1301" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1301" s="25">
         <v>5</v>
       </c>
       <c r="T1301" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1301" s="19" t="s">
         <v>56</v>
       </c>
       <c r="V1301" s="19" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="W1301" s="19" t="s">
         <v>34</v>
       </c>
       <c r="X1301" s="19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Y1301" s="19" t="s">
         <v>7</v>
@@ -35595,7 +35602,7 @@
         <v>8</v>
       </c>
       <c r="AA1301" s="19" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AB1301" s="20">
         <v>30</v>
@@ -35631,28 +35638,28 @@
     </row>
     <row r="1304" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1304" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1304" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1304" s="25">
         <v>5</v>
       </c>
       <c r="T1304" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1304" s="19" t="s">
         <v>143</v>
       </c>
       <c r="V1304" s="19" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="W1304" s="19" t="s">
         <v>141</v>
       </c>
       <c r="X1304" s="19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Y1304" s="19" t="s">
         <v>7</v>
@@ -35661,7 +35668,7 @@
         <v>8</v>
       </c>
       <c r="AA1304" s="19" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AB1304" s="20">
         <v>30</v>
@@ -35697,25 +35704,25 @@
     </row>
     <row r="1307" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1307" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R1307" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S1307" s="25">
         <v>5</v>
       </c>
       <c r="T1307" s="19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="U1307" s="19" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="V1307" s="19" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="W1307" s="19" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="X1307" s="19" t="s">
         <v>2</v>
@@ -35727,7 +35734,7 @@
         <v>8</v>
       </c>
       <c r="AA1307" s="19" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AB1307" s="20">
         <v>1</v>
@@ -35777,10 +35784,10 @@
     </row>
     <row r="1311" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1311" s="18" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="R1311" s="19" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="S1311" s="25">
         <v>6</v>
@@ -35798,7 +35805,7 @@
         <v>21</v>
       </c>
       <c r="X1311" s="19" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="Y1311" s="19" t="s">
         <v>7</v>
@@ -35807,7 +35814,7 @@
         <v>8</v>
       </c>
       <c r="AA1311" s="19" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AB1311" s="20">
         <v>18</v>
@@ -35857,16 +35864,16 @@
     </row>
     <row r="1315" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1315" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1315" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1315" s="24">
         <v>6</v>
       </c>
       <c r="T1315" s="16" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1315" s="16" t="s">
         <v>3</v>
@@ -35887,7 +35894,7 @@
         <v>8</v>
       </c>
       <c r="AA1315" s="16" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AB1315" s="17">
         <v>35</v>
@@ -35895,16 +35902,16 @@
     </row>
     <row r="1316" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1316" s="9" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1316" s="10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1316" s="22">
         <v>6</v>
       </c>
       <c r="T1316" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1316" s="10" t="s">
         <v>3</v>
@@ -35916,7 +35923,7 @@
         <v>468</v>
       </c>
       <c r="X1316" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y1316" s="10" t="s">
         <v>7</v>
@@ -35925,28 +35932,28 @@
         <v>8</v>
       </c>
       <c r="AA1316" s="10" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AB1316" s="11"/>
     </row>
     <row r="1317" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1317" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1317" s="13" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1317" s="23">
         <v>6</v>
       </c>
       <c r="T1317" s="13" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1317" s="13" t="s">
         <v>3</v>
       </c>
       <c r="V1317" s="13" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="W1317" s="13" t="s">
         <v>82</v>
@@ -35961,7 +35968,7 @@
         <v>8</v>
       </c>
       <c r="AA1317" s="13" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AB1317" s="14"/>
     </row>
@@ -35995,16 +36002,16 @@
     </row>
     <row r="1320" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1320" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1320" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1320" s="24">
         <v>6</v>
       </c>
       <c r="T1320" s="16" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1320" s="16" t="s">
         <v>16</v>
@@ -36016,7 +36023,7 @@
         <v>425</v>
       </c>
       <c r="X1320" s="16" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Y1320" s="16" t="s">
         <v>7</v>
@@ -36025,7 +36032,7 @@
         <v>8</v>
       </c>
       <c r="AA1320" s="16" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AB1320" s="17">
         <v>35</v>
@@ -36033,16 +36040,16 @@
     </row>
     <row r="1321" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1321" s="9" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1321" s="10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1321" s="22">
         <v>6</v>
       </c>
       <c r="T1321" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1321" s="10" t="s">
         <v>16</v>
@@ -36063,28 +36070,28 @@
         <v>8</v>
       </c>
       <c r="AA1321" s="10" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AB1321" s="11"/>
     </row>
     <row r="1322" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1322" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1322" s="13" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1322" s="23">
         <v>6</v>
       </c>
       <c r="T1322" s="13" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1322" s="13" t="s">
         <v>16</v>
       </c>
       <c r="V1322" s="13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="W1322" s="13" t="s">
         <v>94</v>
@@ -36099,7 +36106,7 @@
         <v>8</v>
       </c>
       <c r="AA1322" s="13" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AB1322" s="14"/>
     </row>
@@ -36133,22 +36140,22 @@
     </row>
     <row r="1325" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1325" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1325" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1325" s="24">
         <v>6</v>
       </c>
       <c r="T1325" s="16" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1325" s="16" t="s">
         <v>125</v>
       </c>
       <c r="V1325" s="16" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="W1325" s="16" t="s">
         <v>94</v>
@@ -36163,7 +36170,7 @@
         <v>8</v>
       </c>
       <c r="AA1325" s="16" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AB1325" s="17">
         <v>35</v>
@@ -36171,16 +36178,16 @@
     </row>
     <row r="1326" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1326" s="9" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1326" s="10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1326" s="22">
         <v>6</v>
       </c>
       <c r="T1326" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1326" s="10" t="s">
         <v>125</v>
@@ -36192,31 +36199,31 @@
         <v>468</v>
       </c>
       <c r="X1326" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="Y1326" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1326" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1326" s="10" t="s">
         <v>941</v>
-      </c>
-      <c r="Y1326" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1326" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1326" s="10" t="s">
-        <v>940</v>
       </c>
       <c r="AB1326" s="11"/>
     </row>
     <row r="1327" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1327" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1327" s="13" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1327" s="23">
         <v>6</v>
       </c>
       <c r="T1327" s="13" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1327" s="13" t="s">
         <v>125</v>
@@ -36237,7 +36244,7 @@
         <v>8</v>
       </c>
       <c r="AA1327" s="13" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AB1327" s="14"/>
     </row>
@@ -36271,25 +36278,25 @@
     </row>
     <row r="1330" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1330" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1330" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1330" s="24">
         <v>6</v>
       </c>
       <c r="T1330" s="16" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1330" s="16" t="s">
         <v>132</v>
       </c>
       <c r="V1330" s="16" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="W1330" s="16" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="X1330" s="16" t="s">
         <v>2</v>
@@ -36301,7 +36308,7 @@
         <v>8</v>
       </c>
       <c r="AA1330" s="16" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AB1330" s="17">
         <v>35</v>
@@ -36309,16 +36316,16 @@
     </row>
     <row r="1331" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1331" s="9" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1331" s="10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1331" s="22">
         <v>6</v>
       </c>
       <c r="T1331" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1331" s="10" t="s">
         <v>132</v>
@@ -36330,7 +36337,7 @@
         <v>83</v>
       </c>
       <c r="X1331" s="10" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Y1331" s="10" t="s">
         <v>7</v>
@@ -36339,22 +36346,22 @@
         <v>8</v>
       </c>
       <c r="AA1331" s="10" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AB1331" s="11"/>
     </row>
     <row r="1332" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1332" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="R1332" s="13" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S1332" s="23">
         <v>6</v>
       </c>
       <c r="T1332" s="13" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="U1332" s="13" t="s">
         <v>132</v>
@@ -36375,7 +36382,7 @@
         <v>8</v>
       </c>
       <c r="AA1332" s="13" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AB1332" s="14"/>
     </row>
@@ -36423,25 +36430,25 @@
     </row>
     <row r="1336" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1336" s="15" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1336" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1336" s="24">
         <v>6</v>
       </c>
       <c r="T1336" s="16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1336" s="16" t="s">
         <v>3</v>
       </c>
       <c r="V1336" s="16" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="W1336" s="16" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="X1336" s="16" t="s">
         <v>2</v>
@@ -36453,7 +36460,7 @@
         <v>8</v>
       </c>
       <c r="AA1336" s="16" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AB1336" s="17">
         <v>24</v>
@@ -36461,16 +36468,16 @@
     </row>
     <row r="1337" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1337" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1337" s="10" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1337" s="22">
         <v>6</v>
       </c>
       <c r="T1337" s="10" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1337" s="10" t="s">
         <v>3</v>
@@ -36491,34 +36498,34 @@
         <v>8</v>
       </c>
       <c r="AA1337" s="10" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AB1337" s="11"/>
     </row>
     <row r="1338" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1338" s="12" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1338" s="13" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1338" s="23">
         <v>6</v>
       </c>
       <c r="T1338" s="13" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1338" s="13" t="s">
         <v>3</v>
       </c>
       <c r="V1338" s="13" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="W1338" s="13" t="s">
         <v>12</v>
       </c>
       <c r="X1338" s="13" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="Y1338" s="13" t="s">
         <v>7</v>
@@ -36527,7 +36534,7 @@
         <v>8</v>
       </c>
       <c r="AA1338" s="13" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AB1338" s="14"/>
     </row>
@@ -36561,28 +36568,28 @@
     </row>
     <row r="1341" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1341" s="15" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1341" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1341" s="24">
         <v>6</v>
       </c>
       <c r="T1341" s="16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1341" s="16" t="s">
         <v>16</v>
       </c>
       <c r="V1341" s="16" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="W1341" s="16" t="s">
         <v>12</v>
       </c>
       <c r="X1341" s="16" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="Y1341" s="16" t="s">
         <v>7</v>
@@ -36591,7 +36598,7 @@
         <v>8</v>
       </c>
       <c r="AA1341" s="16" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AB1341" s="17">
         <v>24</v>
@@ -36599,22 +36606,22 @@
     </row>
     <row r="1342" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1342" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1342" s="10" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1342" s="22">
         <v>6</v>
       </c>
       <c r="T1342" s="10" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1342" s="10" t="s">
         <v>16</v>
       </c>
       <c r="V1342" s="10" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="W1342" s="10" t="s">
         <v>102</v>
@@ -36629,22 +36636,22 @@
         <v>8</v>
       </c>
       <c r="AA1342" s="10" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AB1342" s="11"/>
     </row>
     <row r="1343" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1343" s="12" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1343" s="13" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1343" s="23">
         <v>6</v>
       </c>
       <c r="T1343" s="13" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1343" s="13" t="s">
         <v>16</v>
@@ -36665,7 +36672,7 @@
         <v>8</v>
       </c>
       <c r="AA1343" s="13" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AB1343" s="14"/>
     </row>
@@ -36699,28 +36706,28 @@
     </row>
     <row r="1346" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1346" s="15" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1346" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1346" s="24">
         <v>6</v>
       </c>
       <c r="T1346" s="16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1346" s="16" t="s">
         <v>125</v>
       </c>
       <c r="V1346" s="16" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="W1346" s="16" t="s">
         <v>12</v>
       </c>
       <c r="X1346" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y1346" s="16" t="s">
         <v>7</v>
@@ -36729,7 +36736,7 @@
         <v>8</v>
       </c>
       <c r="AA1346" s="16" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AB1346" s="17">
         <v>24</v>
@@ -36737,16 +36744,16 @@
     </row>
     <row r="1347" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1347" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1347" s="10" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1347" s="22">
         <v>6</v>
       </c>
       <c r="T1347" s="10" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1347" s="10" t="s">
         <v>125</v>
@@ -36767,28 +36774,28 @@
         <v>8</v>
       </c>
       <c r="AA1347" s="10" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AB1347" s="11"/>
     </row>
     <row r="1348" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1348" s="12" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1348" s="13" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1348" s="23">
         <v>6</v>
       </c>
       <c r="T1348" s="13" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1348" s="13" t="s">
         <v>125</v>
       </c>
       <c r="V1348" s="13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="W1348" s="13" t="s">
         <v>164</v>
@@ -36803,7 +36810,7 @@
         <v>8</v>
       </c>
       <c r="AA1348" s="13" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AB1348" s="14"/>
     </row>
@@ -36837,25 +36844,25 @@
     </row>
     <row r="1351" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1351" s="15" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1351" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1351" s="24">
         <v>6</v>
       </c>
       <c r="T1351" s="16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1351" s="16" t="s">
         <v>132</v>
       </c>
       <c r="V1351" s="16" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="W1351" s="16" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="X1351" s="16" t="s">
         <v>2</v>
@@ -36867,7 +36874,7 @@
         <v>8</v>
       </c>
       <c r="AA1351" s="16" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AB1351" s="17">
         <v>24</v>
@@ -36875,28 +36882,28 @@
     </row>
     <row r="1352" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1352" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1352" s="10" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1352" s="22">
         <v>6</v>
       </c>
       <c r="T1352" s="10" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1352" s="10" t="s">
         <v>132</v>
       </c>
       <c r="V1352" s="10" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="W1352" s="10" t="s">
         <v>12</v>
       </c>
       <c r="X1352" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y1352" s="10" t="s">
         <v>7</v>
@@ -36905,22 +36912,22 @@
         <v>8</v>
       </c>
       <c r="AA1352" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AB1352" s="11"/>
     </row>
     <row r="1353" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1353" s="12" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R1353" s="13" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="S1353" s="23">
         <v>6</v>
       </c>
       <c r="T1353" s="13" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="U1353" s="13" t="s">
         <v>132</v>
@@ -36941,7 +36948,7 @@
         <v>8</v>
       </c>
       <c r="AA1353" s="13" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AB1353" s="14"/>
     </row>
@@ -36989,16 +36996,16 @@
     </row>
     <row r="1357" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1357" s="15" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="R1357" s="16" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="S1357" s="24">
         <v>6</v>
       </c>
       <c r="T1357" s="16" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="U1357" s="16" t="s">
         <v>3</v>
@@ -37019,7 +37026,7 @@
         <v>8</v>
       </c>
       <c r="AA1357" s="16" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AB1357" s="17">
         <v>43</v>
@@ -37027,16 +37034,16 @@
     </row>
     <row r="1358" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1358" s="12" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="R1358" s="13" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="S1358" s="23">
         <v>6</v>
       </c>
       <c r="T1358" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="U1358" s="13" t="s">
         <v>3</v>
@@ -37057,7 +37064,7 @@
         <v>8</v>
       </c>
       <c r="AA1358" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AB1358" s="14"/>
     </row>
@@ -37091,16 +37098,16 @@
     </row>
     <row r="1361" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1361" s="15" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="R1361" s="16" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="S1361" s="24">
         <v>6</v>
       </c>
       <c r="T1361" s="16" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="U1361" s="16" t="s">
         <v>16</v>
@@ -37121,7 +37128,7 @@
         <v>8</v>
       </c>
       <c r="AA1361" s="16" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AB1361" s="17">
         <v>43</v>
@@ -37129,16 +37136,16 @@
     </row>
     <row r="1362" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1362" s="12" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="R1362" s="13" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="S1362" s="23">
         <v>6</v>
       </c>
       <c r="T1362" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="U1362" s="13" t="s">
         <v>16</v>
@@ -37159,7 +37166,7 @@
         <v>8</v>
       </c>
       <c r="AA1362" s="13" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AB1362" s="14"/>
     </row>
@@ -37207,16 +37214,16 @@
     </row>
     <row r="1366" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1366" s="15" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="R1366" s="16" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S1366" s="24">
         <v>6</v>
       </c>
       <c r="T1366" s="16" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="U1366" s="16" t="s">
         <v>3</v>
@@ -37237,7 +37244,7 @@
         <v>8</v>
       </c>
       <c r="AA1366" s="16" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AB1366" s="17">
         <v>45</v>
@@ -37245,16 +37252,16 @@
     </row>
     <row r="1367" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1367" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="R1367" s="13" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S1367" s="23">
         <v>6</v>
       </c>
       <c r="T1367" s="13" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="U1367" s="13" t="s">
         <v>3</v>
@@ -37263,7 +37270,7 @@
         <v>182</v>
       </c>
       <c r="W1367" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X1367" s="13" t="s">
         <v>2</v>
@@ -37275,7 +37282,7 @@
         <v>8</v>
       </c>
       <c r="AA1367" s="13" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AB1367" s="14"/>
     </row>
@@ -37309,16 +37316,16 @@
     </row>
     <row r="1370" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1370" s="15" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="R1370" s="16" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S1370" s="24">
         <v>6</v>
       </c>
       <c r="T1370" s="16" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="U1370" s="16" t="s">
         <v>16</v>
@@ -37327,7 +37334,7 @@
         <v>225</v>
       </c>
       <c r="W1370" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X1370" s="16" t="s">
         <v>2</v>
@@ -37339,7 +37346,7 @@
         <v>8</v>
       </c>
       <c r="AA1370" s="16" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AB1370" s="17">
         <v>45</v>
@@ -37347,16 +37354,16 @@
     </row>
     <row r="1371" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1371" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="R1371" s="13" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S1371" s="23">
         <v>6</v>
       </c>
       <c r="T1371" s="13" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="U1371" s="13" t="s">
         <v>16</v>
@@ -37377,7 +37384,7 @@
         <v>8</v>
       </c>
       <c r="AA1371" s="13" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AB1371" s="14"/>
     </row>
@@ -37425,16 +37432,16 @@
     </row>
     <row r="1375" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1375" s="15" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="R1375" s="16" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="S1375" s="24">
         <v>6</v>
       </c>
       <c r="T1375" s="16" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="U1375" s="16" t="s">
         <v>3</v>
@@ -37455,7 +37462,7 @@
         <v>8</v>
       </c>
       <c r="AA1375" s="16" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AB1375" s="17">
         <v>35</v>
@@ -37463,16 +37470,16 @@
     </row>
     <row r="1376" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1376" s="12" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="R1376" s="13" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="S1376" s="23">
         <v>6</v>
       </c>
       <c r="T1376" s="13" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="U1376" s="13" t="s">
         <v>3</v>
@@ -37493,7 +37500,7 @@
         <v>8</v>
       </c>
       <c r="AA1376" s="13" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AB1376" s="14"/>
     </row>
@@ -37527,16 +37534,16 @@
     </row>
     <row r="1379" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1379" s="15" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="R1379" s="16" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="S1379" s="24">
         <v>6</v>
       </c>
       <c r="T1379" s="16" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="U1379" s="16" t="s">
         <v>16</v>
@@ -37557,7 +37564,7 @@
         <v>8</v>
       </c>
       <c r="AA1379" s="16" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AB1379" s="17">
         <v>35</v>
@@ -37565,16 +37572,16 @@
     </row>
     <row r="1380" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1380" s="12" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="R1380" s="13" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="S1380" s="23">
         <v>6</v>
       </c>
       <c r="T1380" s="13" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="U1380" s="13" t="s">
         <v>16</v>
@@ -37595,7 +37602,7 @@
         <v>8</v>
       </c>
       <c r="AA1380" s="13" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AB1380" s="14"/>
     </row>
@@ -37643,16 +37650,16 @@
     </row>
     <row r="1384" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1384" s="15" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="R1384" s="16" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S1384" s="24">
         <v>6</v>
       </c>
       <c r="T1384" s="16" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="U1384" s="16" t="s">
         <v>3</v>
@@ -37673,7 +37680,7 @@
         <v>8</v>
       </c>
       <c r="AA1384" s="16" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AB1384" s="17">
         <v>25</v>
@@ -37681,16 +37688,16 @@
     </row>
     <row r="1385" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1385" s="12" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="R1385" s="13" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S1385" s="23">
         <v>6</v>
       </c>
       <c r="T1385" s="13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="U1385" s="13" t="s">
         <v>3</v>
@@ -37711,7 +37718,7 @@
         <v>8</v>
       </c>
       <c r="AA1385" s="13" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AB1385" s="14"/>
     </row>
@@ -37745,16 +37752,16 @@
     </row>
     <row r="1388" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1388" s="15" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="R1388" s="16" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S1388" s="24">
         <v>6</v>
       </c>
       <c r="T1388" s="16" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="U1388" s="16" t="s">
         <v>16</v>
@@ -37775,7 +37782,7 @@
         <v>8</v>
       </c>
       <c r="AA1388" s="16" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AB1388" s="17">
         <v>25</v>
@@ -37783,16 +37790,16 @@
     </row>
     <row r="1389" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1389" s="12" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="R1389" s="13" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S1389" s="23">
         <v>6</v>
       </c>
       <c r="T1389" s="13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="U1389" s="13" t="s">
         <v>16</v>
@@ -37813,7 +37820,7 @@
         <v>8</v>
       </c>
       <c r="AA1389" s="13" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AB1389" s="14"/>
     </row>
@@ -37847,16 +37854,16 @@
     </row>
     <row r="1392" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1392" s="15" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="R1392" s="16" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S1392" s="24">
         <v>6</v>
       </c>
       <c r="T1392" s="16" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="U1392" s="16" t="s">
         <v>125</v>
@@ -37877,7 +37884,7 @@
         <v>8</v>
       </c>
       <c r="AA1392" s="16" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AB1392" s="17">
         <v>25</v>
@@ -37885,16 +37892,16 @@
     </row>
     <row r="1393" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1393" s="12" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="R1393" s="13" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S1393" s="23">
         <v>6</v>
       </c>
       <c r="T1393" s="13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="U1393" s="13" t="s">
         <v>125</v>
@@ -37915,7 +37922,7 @@
         <v>8</v>
       </c>
       <c r="AA1393" s="13" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AB1393" s="14"/>
     </row>
@@ -37963,16 +37970,16 @@
     </row>
     <row r="1397" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1397" s="15" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="R1397" s="16" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="S1397" s="24">
         <v>6</v>
       </c>
       <c r="T1397" s="16" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="U1397" s="16" t="s">
         <v>3</v>
@@ -37993,7 +38000,7 @@
         <v>8</v>
       </c>
       <c r="AA1397" s="16" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AB1397" s="17">
         <v>35</v>
@@ -38001,16 +38008,16 @@
     </row>
     <row r="1398" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1398" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="R1398" s="13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="S1398" s="23">
         <v>6</v>
       </c>
       <c r="T1398" s="13" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="U1398" s="13" t="s">
         <v>3</v>
@@ -38031,7 +38038,7 @@
         <v>8</v>
       </c>
       <c r="AA1398" s="13" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AB1398" s="14"/>
     </row>
@@ -38065,16 +38072,16 @@
     </row>
     <row r="1401" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1401" s="15" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="R1401" s="16" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="S1401" s="24">
         <v>6</v>
       </c>
       <c r="T1401" s="16" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="U1401" s="16" t="s">
         <v>16</v>
@@ -38095,7 +38102,7 @@
         <v>8</v>
       </c>
       <c r="AA1401" s="16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AB1401" s="17">
         <v>35</v>
@@ -38103,16 +38110,16 @@
     </row>
     <row r="1402" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1402" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="R1402" s="13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="S1402" s="23">
         <v>6</v>
       </c>
       <c r="T1402" s="13" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="U1402" s="13" t="s">
         <v>16</v>
@@ -38133,7 +38140,7 @@
         <v>8</v>
       </c>
       <c r="AA1402" s="13" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AB1402" s="14"/>
     </row>
@@ -38181,10 +38188,10 @@
     </row>
     <row r="1406" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1406" s="15" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="R1406" s="16" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S1406" s="24">
         <v>6</v>
@@ -38196,7 +38203,7 @@
         <v>3</v>
       </c>
       <c r="V1406" s="16" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="W1406" s="16" t="s">
         <v>12</v>
@@ -38211,7 +38218,7 @@
         <v>8</v>
       </c>
       <c r="AA1406" s="16" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AB1406" s="17">
         <v>15</v>
@@ -38219,10 +38226,10 @@
     </row>
     <row r="1407" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1407" s="9" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="R1407" s="10" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S1407" s="22">
         <v>6</v>
@@ -38234,7 +38241,7 @@
         <v>3</v>
       </c>
       <c r="V1407" s="10" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="W1407" s="10" t="s">
         <v>447</v>
@@ -38249,16 +38256,16 @@
         <v>8</v>
       </c>
       <c r="AA1407" s="10" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AB1407" s="11"/>
     </row>
     <row r="1408" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1408" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="R1408" s="13" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S1408" s="23">
         <v>6</v>
@@ -38270,7 +38277,7 @@
         <v>3</v>
       </c>
       <c r="V1408" s="13" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="W1408" s="13" t="s">
         <v>511</v>
@@ -38285,7 +38292,7 @@
         <v>8</v>
       </c>
       <c r="AA1408" s="13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AB1408" s="14"/>
     </row>
@@ -38319,10 +38326,10 @@
     </row>
     <row r="1411" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1411" s="15" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="R1411" s="16" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S1411" s="24">
         <v>6</v>
@@ -38334,10 +38341,10 @@
         <v>16</v>
       </c>
       <c r="V1411" s="16" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="W1411" s="16" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="X1411" s="16" t="s">
         <v>2</v>
@@ -38349,7 +38356,7 @@
         <v>8</v>
       </c>
       <c r="AA1411" s="16" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AB1411" s="17">
         <v>15</v>
@@ -38357,10 +38364,10 @@
     </row>
     <row r="1412" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1412" s="9" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="R1412" s="10" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S1412" s="22">
         <v>6</v>
@@ -38372,7 +38379,7 @@
         <v>16</v>
       </c>
       <c r="V1412" s="10" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="W1412" s="10" t="s">
         <v>511</v>
@@ -38387,16 +38394,16 @@
         <v>8</v>
       </c>
       <c r="AA1412" s="10" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AB1412" s="11"/>
     </row>
     <row r="1413" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1413" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="R1413" s="13" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S1413" s="23">
         <v>6</v>
@@ -38408,7 +38415,7 @@
         <v>16</v>
       </c>
       <c r="V1413" s="13" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="W1413" s="13" t="s">
         <v>12</v>
@@ -38423,7 +38430,7 @@
         <v>8</v>
       </c>
       <c r="AA1413" s="13" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AB1413" s="14"/>
     </row>
@@ -38471,7 +38478,7 @@
     </row>
     <row r="1417" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1417" s="15" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="R1417" s="16" t="s">
         <v>504</v>
@@ -38486,7 +38493,7 @@
         <v>3</v>
       </c>
       <c r="V1417" s="16" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="W1417" s="16" t="s">
         <v>102</v>
@@ -38501,7 +38508,7 @@
         <v>8</v>
       </c>
       <c r="AA1417" s="16" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AB1417" s="17">
         <v>17</v>
@@ -38509,7 +38516,7 @@
     </row>
     <row r="1418" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1418" s="9" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="R1418" s="10" t="s">
         <v>504</v>
@@ -38524,28 +38531,28 @@
         <v>3</v>
       </c>
       <c r="V1418" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="W1418" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="X1418" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1418" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1418" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1418" s="10" t="s">
         <v>992</v>
-      </c>
-      <c r="W1418" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="X1418" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1418" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1418" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1418" s="10" t="s">
-        <v>991</v>
       </c>
       <c r="AB1418" s="11"/>
     </row>
     <row r="1419" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1419" s="12" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="R1419" s="13" t="s">
         <v>504</v>
@@ -38575,7 +38582,7 @@
         <v>8</v>
       </c>
       <c r="AA1419" s="13" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AB1419" s="14"/>
     </row>
@@ -38609,7 +38616,7 @@
     </row>
     <row r="1422" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1422" s="15" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="R1422" s="16" t="s">
         <v>504</v>
@@ -38639,7 +38646,7 @@
         <v>8</v>
       </c>
       <c r="AA1422" s="16" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AB1422" s="17">
         <v>17</v>
@@ -38647,7 +38654,7 @@
     </row>
     <row r="1423" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1423" s="9" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="R1423" s="10" t="s">
         <v>504</v>
@@ -38662,10 +38669,10 @@
         <v>16</v>
       </c>
       <c r="V1423" s="10" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="W1423" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="X1423" s="10" t="s">
         <v>2</v>
@@ -38677,13 +38684,13 @@
         <v>8</v>
       </c>
       <c r="AA1423" s="10" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AB1423" s="11"/>
     </row>
     <row r="1424" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1424" s="12" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="R1424" s="13" t="s">
         <v>504</v>
@@ -38698,7 +38705,7 @@
         <v>16</v>
       </c>
       <c r="V1424" s="13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="W1424" s="13" t="s">
         <v>48</v>
@@ -38713,7 +38720,7 @@
         <v>8</v>
       </c>
       <c r="AA1424" s="13" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AB1424" s="14"/>
     </row>
@@ -38761,7 +38768,7 @@
     </row>
     <row r="1428" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1428" s="15" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="R1428" s="16" t="s">
         <v>495</v>
@@ -38782,7 +38789,7 @@
         <v>83</v>
       </c>
       <c r="X1428" s="16" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="Y1428" s="16" t="s">
         <v>7</v>
@@ -38791,7 +38798,7 @@
         <v>8</v>
       </c>
       <c r="AA1428" s="16" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AB1428" s="17">
         <v>35</v>
@@ -38799,7 +38806,7 @@
     </row>
     <row r="1429" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1429" s="12" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="R1429" s="13" t="s">
         <v>495</v>
@@ -38817,7 +38824,7 @@
         <v>182</v>
       </c>
       <c r="W1429" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X1429" s="13" t="s">
         <v>2</v>
@@ -38829,7 +38836,7 @@
         <v>8</v>
       </c>
       <c r="AA1429" s="13" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AB1429" s="14"/>
     </row>
@@ -38877,7 +38884,7 @@
     </row>
     <row r="1433" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1433" s="15" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="R1433" s="16" t="s">
         <v>502</v>
@@ -38907,7 +38914,7 @@
         <v>8</v>
       </c>
       <c r="AA1433" s="16" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AB1433" s="17">
         <v>35</v>
@@ -38915,7 +38922,7 @@
     </row>
     <row r="1434" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1434" s="12" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="R1434" s="13" t="s">
         <v>502</v>
@@ -38936,16 +38943,16 @@
         <v>468</v>
       </c>
       <c r="X1434" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="Y1434" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1434" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1434" s="13" t="s">
         <v>998</v>
-      </c>
-      <c r="Y1434" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1434" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1434" s="13" t="s">
-        <v>997</v>
       </c>
       <c r="AB1434" s="14"/>
     </row>
@@ -38979,7 +38986,7 @@
     </row>
     <row r="1437" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1437" s="15" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="R1437" s="16" t="s">
         <v>502</v>
@@ -39009,7 +39016,7 @@
         <v>8</v>
       </c>
       <c r="AA1437" s="16" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AB1437" s="17">
         <v>35</v>
@@ -39017,7 +39024,7 @@
     </row>
     <row r="1438" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1438" s="12" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="R1438" s="13" t="s">
         <v>502</v>
@@ -39047,7 +39054,7 @@
         <v>8</v>
       </c>
       <c r="AA1438" s="13" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AB1438" s="14"/>
     </row>
@@ -39095,7 +39102,7 @@
     </row>
     <row r="1442" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1442" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1442" s="16" t="s">
         <v>451</v>
@@ -39116,7 +39123,7 @@
         <v>474</v>
       </c>
       <c r="X1442" s="16" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y1442" s="16" t="s">
         <v>7</v>
@@ -39125,7 +39132,7 @@
         <v>8</v>
       </c>
       <c r="AA1442" s="16" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AB1442" s="17">
         <v>39</v>
@@ -39133,7 +39140,7 @@
     </row>
     <row r="1443" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1443" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1443" s="13" t="s">
         <v>451</v>
@@ -39163,7 +39170,7 @@
         <v>8</v>
       </c>
       <c r="AA1443" s="13" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AB1443" s="14"/>
     </row>
@@ -39183,7 +39190,7 @@
     </row>
     <row r="1445" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1445" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1445" s="16" t="s">
         <v>451</v>
@@ -39204,7 +39211,7 @@
         <v>474</v>
       </c>
       <c r="X1445" s="16" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y1445" s="16" t="s">
         <v>7</v>
@@ -39213,7 +39220,7 @@
         <v>434</v>
       </c>
       <c r="AA1445" s="16" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AB1445" s="17">
         <v>6</v>
@@ -39221,7 +39228,7 @@
     </row>
     <row r="1446" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1446" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1446" s="13" t="s">
         <v>451</v>
@@ -39251,7 +39258,7 @@
         <v>434</v>
       </c>
       <c r="AA1446" s="13" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AB1446" s="14"/>
     </row>
@@ -39285,7 +39292,7 @@
     </row>
     <row r="1449" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1449" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1449" s="16" t="s">
         <v>451</v>
@@ -39306,7 +39313,7 @@
         <v>68</v>
       </c>
       <c r="X1449" s="16" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y1449" s="16" t="s">
         <v>7</v>
@@ -39315,7 +39322,7 @@
         <v>8</v>
       </c>
       <c r="AA1449" s="16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AB1449" s="17">
         <v>39</v>
@@ -39323,7 +39330,7 @@
     </row>
     <row r="1450" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1450" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1450" s="13" t="s">
         <v>451</v>
@@ -39353,7 +39360,7 @@
         <v>8</v>
       </c>
       <c r="AA1450" s="13" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AB1450" s="14"/>
     </row>
@@ -39373,7 +39380,7 @@
     </row>
     <row r="1452" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1452" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1452" s="16" t="s">
         <v>451</v>
@@ -39403,7 +39410,7 @@
         <v>434</v>
       </c>
       <c r="AA1452" s="16" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AB1452" s="17">
         <v>6</v>
@@ -39411,7 +39418,7 @@
     </row>
     <row r="1453" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1453" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1453" s="13" t="s">
         <v>451</v>
@@ -39432,7 +39439,7 @@
         <v>68</v>
       </c>
       <c r="X1453" s="13" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y1453" s="13" t="s">
         <v>7</v>
@@ -39441,7 +39448,7 @@
         <v>434</v>
       </c>
       <c r="AA1453" s="13" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AB1453" s="14"/>
     </row>
@@ -39475,7 +39482,7 @@
     </row>
     <row r="1456" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1456" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1456" s="16" t="s">
         <v>451</v>
@@ -39505,7 +39512,7 @@
         <v>8</v>
       </c>
       <c r="AA1456" s="16" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AB1456" s="17">
         <v>39</v>
@@ -39513,7 +39520,7 @@
     </row>
     <row r="1457" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1457" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1457" s="13" t="s">
         <v>451</v>
@@ -39534,16 +39541,16 @@
         <v>162</v>
       </c>
       <c r="X1457" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y1457" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1457" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1457" s="13" t="s">
         <v>1007</v>
-      </c>
-      <c r="Y1457" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1457" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1457" s="13" t="s">
-        <v>1006</v>
       </c>
       <c r="AB1457" s="14"/>
     </row>
@@ -39563,7 +39570,7 @@
     </row>
     <row r="1459" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1459" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1459" s="16" t="s">
         <v>451</v>
@@ -39593,7 +39600,7 @@
         <v>434</v>
       </c>
       <c r="AA1459" s="16" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AB1459" s="17">
         <v>6</v>
@@ -39601,7 +39608,7 @@
     </row>
     <row r="1460" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1460" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1460" s="13" t="s">
         <v>451</v>
@@ -39622,7 +39629,7 @@
         <v>162</v>
       </c>
       <c r="X1460" s="13" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="Y1460" s="13" t="s">
         <v>7</v>
@@ -39631,7 +39638,7 @@
         <v>434</v>
       </c>
       <c r="AA1460" s="13" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AB1460" s="14"/>
     </row>
@@ -39665,7 +39672,7 @@
     </row>
     <row r="1463" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1463" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1463" s="16" t="s">
         <v>451</v>
@@ -39686,7 +39693,7 @@
         <v>162</v>
       </c>
       <c r="X1463" s="16" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y1463" s="16" t="s">
         <v>7</v>
@@ -39695,7 +39702,7 @@
         <v>8</v>
       </c>
       <c r="AA1463" s="16" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AB1463" s="17">
         <v>39</v>
@@ -39703,7 +39710,7 @@
     </row>
     <row r="1464" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1464" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1464" s="13" t="s">
         <v>451</v>
@@ -39733,7 +39740,7 @@
         <v>8</v>
       </c>
       <c r="AA1464" s="13" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AB1464" s="14"/>
     </row>
@@ -39753,7 +39760,7 @@
     </row>
     <row r="1466" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1466" s="15" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1466" s="16" t="s">
         <v>451</v>
@@ -39774,7 +39781,7 @@
         <v>162</v>
       </c>
       <c r="X1466" s="16" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y1466" s="16" t="s">
         <v>7</v>
@@ -39783,7 +39790,7 @@
         <v>434</v>
       </c>
       <c r="AA1466" s="16" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AB1466" s="17">
         <v>6</v>
@@ -39791,7 +39798,7 @@
     </row>
     <row r="1467" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1467" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R1467" s="13" t="s">
         <v>451</v>
@@ -39821,7 +39828,7 @@
         <v>434</v>
       </c>
       <c r="AA1467" s="13" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AB1467" s="14"/>
     </row>
@@ -39869,28 +39876,28 @@
     </row>
     <row r="1471" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1471" s="15" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1471" s="16" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1471" s="24">
         <v>6</v>
       </c>
       <c r="T1471" s="16" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1471" s="16" t="s">
         <v>3</v>
       </c>
       <c r="V1471" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="W1471" s="16" t="s">
         <v>53</v>
       </c>
       <c r="X1471" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Y1471" s="16" t="s">
         <v>7</v>
@@ -39899,7 +39906,7 @@
         <v>8</v>
       </c>
       <c r="AA1471" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AB1471" s="17">
         <v>21</v>
@@ -39907,22 +39914,22 @@
     </row>
     <row r="1472" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1472" s="9" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1472" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1472" s="22">
         <v>6</v>
       </c>
       <c r="T1472" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1472" s="10" t="s">
         <v>3</v>
       </c>
       <c r="V1472" s="10" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="W1472" s="10" t="s">
         <v>157</v>
@@ -39937,28 +39944,28 @@
         <v>8</v>
       </c>
       <c r="AA1472" s="10" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AB1472" s="11"/>
     </row>
     <row r="1473" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1473" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1473" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1473" s="23">
         <v>6</v>
       </c>
       <c r="T1473" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1473" s="13" t="s">
         <v>3</v>
       </c>
       <c r="V1473" s="13" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="W1473" s="13" t="s">
         <v>48</v>
@@ -39973,7 +39980,7 @@
         <v>8</v>
       </c>
       <c r="AA1473" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AB1473" s="14"/>
     </row>
@@ -40007,28 +40014,28 @@
     </row>
     <row r="1476" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1476" s="15" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1476" s="16" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1476" s="24">
         <v>6</v>
       </c>
       <c r="T1476" s="16" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1476" s="16" t="s">
         <v>16</v>
       </c>
       <c r="V1476" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="W1476" s="16" t="s">
         <v>53</v>
       </c>
       <c r="X1476" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Y1476" s="16" t="s">
         <v>7</v>
@@ -40037,7 +40044,7 @@
         <v>8</v>
       </c>
       <c r="AA1476" s="16" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AB1476" s="17">
         <v>20</v>
@@ -40045,22 +40052,22 @@
     </row>
     <row r="1477" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1477" s="9" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1477" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1477" s="22">
         <v>6</v>
       </c>
       <c r="T1477" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1477" s="10" t="s">
         <v>16</v>
       </c>
       <c r="V1477" s="10" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="W1477" s="10" t="s">
         <v>28</v>
@@ -40075,28 +40082,28 @@
         <v>8</v>
       </c>
       <c r="AA1477" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AB1477" s="11"/>
     </row>
     <row r="1478" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1478" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1478" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1478" s="23">
         <v>6</v>
       </c>
       <c r="T1478" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1478" s="13" t="s">
         <v>16</v>
       </c>
       <c r="V1478" s="13" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="W1478" s="13" t="s">
         <v>48</v>
@@ -40111,7 +40118,7 @@
         <v>8</v>
       </c>
       <c r="AA1478" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AB1478" s="14"/>
     </row>
@@ -40145,22 +40152,22 @@
     </row>
     <row r="1481" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1481" s="15" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1481" s="16" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1481" s="24">
         <v>6</v>
       </c>
       <c r="T1481" s="16" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1481" s="16" t="s">
         <v>125</v>
       </c>
       <c r="V1481" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="W1481" s="16" t="s">
         <v>463</v>
@@ -40175,7 +40182,7 @@
         <v>8</v>
       </c>
       <c r="AA1481" s="16" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AB1481" s="17">
         <v>31</v>
@@ -40183,58 +40190,58 @@
     </row>
     <row r="1482" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1482" s="9" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1482" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1482" s="22">
         <v>6</v>
       </c>
       <c r="T1482" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1482" s="10" t="s">
         <v>125</v>
       </c>
       <c r="V1482" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="W1482" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="X1482" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1482" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1482" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1482" s="10" t="s">
         <v>1019</v>
-      </c>
-      <c r="W1482" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="X1482" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1482" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1482" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1482" s="10" t="s">
-        <v>1018</v>
       </c>
       <c r="AB1482" s="11"/>
     </row>
     <row r="1483" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1483" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1483" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1483" s="23">
         <v>6</v>
       </c>
       <c r="T1483" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1483" s="13" t="s">
         <v>125</v>
       </c>
       <c r="V1483" s="13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="W1483" s="13" t="s">
         <v>38</v>
@@ -40249,7 +40256,7 @@
         <v>8</v>
       </c>
       <c r="AA1483" s="13" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AB1483" s="14"/>
     </row>
@@ -40283,22 +40290,22 @@
     </row>
     <row r="1486" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1486" s="15" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1486" s="16" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1486" s="24">
         <v>6</v>
       </c>
       <c r="T1486" s="16" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1486" s="16" t="s">
         <v>132</v>
       </c>
       <c r="V1486" s="16" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="W1486" s="16" t="s">
         <v>79</v>
@@ -40313,7 +40320,7 @@
         <v>8</v>
       </c>
       <c r="AA1486" s="16" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AB1486" s="17">
         <v>10</v>
@@ -40321,25 +40328,25 @@
     </row>
     <row r="1487" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1487" s="9" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1487" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1487" s="22">
         <v>6</v>
       </c>
       <c r="T1487" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1487" s="10" t="s">
         <v>132</v>
       </c>
       <c r="V1487" s="10" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="W1487" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X1487" s="10" t="s">
         <v>2</v>
@@ -40351,28 +40358,28 @@
         <v>8</v>
       </c>
       <c r="AA1487" s="10" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AB1487" s="11"/>
     </row>
     <row r="1488" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1488" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1488" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1488" s="23">
         <v>6</v>
       </c>
       <c r="T1488" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1488" s="13" t="s">
         <v>132</v>
       </c>
       <c r="V1488" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="W1488" s="13" t="s">
         <v>463</v>
@@ -40387,7 +40394,7 @@
         <v>8</v>
       </c>
       <c r="AA1488" s="13" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AB1488" s="14"/>
     </row>
@@ -40421,22 +40428,22 @@
     </row>
     <row r="1491" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1491" s="15" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1491" s="16" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1491" s="24">
         <v>6</v>
       </c>
       <c r="T1491" s="16" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1491" s="16" t="s">
         <v>32</v>
       </c>
       <c r="V1491" s="16" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="W1491" s="16" t="s">
         <v>14</v>
@@ -40451,7 +40458,7 @@
         <v>8</v>
       </c>
       <c r="AA1491" s="16" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AB1491" s="17">
         <v>30</v>
@@ -40459,22 +40466,22 @@
     </row>
     <row r="1492" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1492" s="9" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1492" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1492" s="22">
         <v>6</v>
       </c>
       <c r="T1492" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1492" s="10" t="s">
         <v>32</v>
       </c>
       <c r="V1492" s="10" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="W1492" s="10" t="s">
         <v>329</v>
@@ -40489,31 +40496,31 @@
         <v>8</v>
       </c>
       <c r="AA1492" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AB1492" s="11"/>
     </row>
     <row r="1493" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1493" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1493" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1493" s="23">
         <v>6</v>
       </c>
       <c r="T1493" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1493" s="13" t="s">
         <v>32</v>
       </c>
       <c r="V1493" s="13" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="W1493" s="13" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="X1493" s="13" t="s">
         <v>2</v>
@@ -40525,7 +40532,7 @@
         <v>8</v>
       </c>
       <c r="AA1493" s="13" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AB1493" s="14"/>
     </row>
@@ -40559,25 +40566,25 @@
     </row>
     <row r="1496" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1496" s="15" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1496" s="16" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1496" s="24">
         <v>6</v>
       </c>
       <c r="T1496" s="16" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1496" s="16" t="s">
         <v>43</v>
       </c>
       <c r="V1496" s="16" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="W1496" s="16" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="X1496" s="16" t="s">
         <v>2</v>
@@ -40589,7 +40596,7 @@
         <v>8</v>
       </c>
       <c r="AA1496" s="16" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="AB1496" s="17">
         <v>10</v>
@@ -40597,22 +40604,22 @@
     </row>
     <row r="1497" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1497" s="9" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1497" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1497" s="22">
         <v>6</v>
       </c>
       <c r="T1497" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1497" s="10" t="s">
         <v>43</v>
       </c>
       <c r="V1497" s="10" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="W1497" s="10" t="s">
         <v>329</v>
@@ -40627,28 +40634,28 @@
         <v>8</v>
       </c>
       <c r="AA1497" s="10" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="AB1497" s="11"/>
     </row>
     <row r="1498" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1498" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R1498" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S1498" s="23">
         <v>6</v>
       </c>
       <c r="T1498" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1498" s="13" t="s">
         <v>43</v>
       </c>
       <c r="V1498" s="13" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="W1498" s="13" t="s">
         <v>151</v>
@@ -40663,7 +40670,7 @@
         <v>8</v>
       </c>
       <c r="AA1498" s="13" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="AB1498" s="14"/>
     </row>
@@ -40711,10 +40718,10 @@
     </row>
     <row r="1502" spans="17:28" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="Q1502" s="18" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="R1502" s="19" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="S1502" s="25">
         <v>6</v>
@@ -40741,7 +40748,7 @@
         <v>8</v>
       </c>
       <c r="AA1502" s="19" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AB1502" s="20">
         <v>21</v>

--- a/RutaCritica/INGENIERÍA-CIVIL-EN-INFORMÁTICA-Y-TELECOMUNICACIONES.xlsx
+++ b/RutaCritica/INGENIERÍA-CIVIL-EN-INFORMÁTICA-Y-TELECOMUNICACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429119AF-A858-462C-BA34-4BCF0170AB92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B906A87-D50B-4E1B-86C5-D2A27877B544}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3813,8 +3813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="Q1:AB1506"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA986" sqref="AA986:AA1007"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1384" workbookViewId="0">
+      <selection activeCell="R1413" sqref="R1413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
